--- a/step3_noise_generation/error_reports_xlsx/substitution_errors.xlsx
+++ b/step3_noise_generation/error_reports_xlsx/substitution_errors.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +456,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>formulatizg</t>
+          <t>aevances</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>formulating</t>
+          <t>advances</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Newton also made seminal contributions to optics, and shares credit with the German mathematician Gottfried Wilhelm Leibniz for formulatizg infinitesimal calculus, although he developed calculus years before Leibniz.</t>
+          <t>Japan conquered much of coastal China and Southeast Asia, but its aevances in the Pacific were halted in June 1942 at the Battle of Midway.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Newton also made seminal contributions to optics, and shares credit with the German mathematician Gottfried Wilhelm Leibniz for formulating infinitesimal calculus, although he developed calculus years before Leibniz.</t>
+          <t>Japan conquered much of coastal China and Southeast Asia, but its advances in the Pacific were halted in June 1942 at the Battle of Midway.</t>
         </is>
       </c>
     </row>
@@ -483,22 +483,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zrgentina</t>
+          <t>othyr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The origins of zrgentina as a nation can be traced to 1776, when it was separated by King Charles III of Spain from the existing Viceroyalty of Peru, creating the new Viceroyalty of the Río de la Plata.</t>
+          <t>Psychologists' interests extend to interpersonal relationships, psychological resilience, family resilience, and othyr areas within social psychology.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The origins of Argentina as a nation can be traced to 1776, when it was separated by King Charles III of Spain from the existing Viceroyalty of Peru, creating the new Viceroyalty of the Río de la Plata.</t>
+          <t>Psychologists' interests extend to interpersonal relationships, psychological resilience, family resilience, and other areas within social psychology.</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>accyunted</t>
+          <t>formey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>accounted</t>
+          <t>former</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Imports and exports are accyunted for in a country's current account in the balance of payments.</t>
+          <t>She was the first woman to be elected chancellor, and the first chancellor of reunified Germany to have been raised in the formey East Germany.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Imports and exports are accounted for in a country's current account in the balance of payments.</t>
+          <t>She was the first woman to be elected chancellor, and the first chancellor of reunified Germany to have been raised in the former East Germany.</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>axout</t>
+          <t>origiy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>origin</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>In a more general sense, the term history refers not to an academic field but to the past itself, times in the past, or to individual texts axout the past.</t>
+          <t>The origiy of Indo-European languages is unknown.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>In a more general sense, the term history refers not to an academic field but to the past itself, times in the past, or to individual texts about the past.</t>
+          <t>The origin of Indo-European languages is unknown.</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>awsimilated</t>
+          <t>populax</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>assimilated</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The Hattians were awsimilated by the Hittites and other Anatolian peoples.</t>
+          <t>The current constitution was ratified by populax referendum during the military junta of 1980-1983.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The Hattians were assimilated by the Hittites and other Anatolian peoples.</t>
+          <t>The current constitution was ratified by popular referendum during the military junta of 1980-1983.</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>beczme</t>
+          <t>dxfferent</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>became</t>
+          <t>different</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>During the reigns of Selim I and Suleiman the Magnificent in the 16th century, the Ottoman Empire beczme a global power.</t>
+          <t>The Earth's crust or lithosphere, is the outermost solid surface of the planet and is chemically, physically and mechanically dxfferent from underlying mantle.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>During the reigns of Selim I and Suleiman the Magnificent in the 16th century, the Ottoman Empire became a global power.</t>
+          <t>The Earth's crust or lithosphere, is the outermost solid surface of the planet and is chemically, physically and mechanically different from underlying mantle.</t>
         </is>
       </c>
     </row>
@@ -618,22 +618,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>derivayion</t>
+          <t>institutiox</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>derivation</t>
+          <t>institution</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The earlier derivayion from Iranian Hu-apa-dahyu 'Land of good horses' can hardly be reconciled with the phonetic shape of Kat-patuka.</t>
+          <t>By the 19th century, Harvard had emerged as the most prominent academic and cultural institutiox among the Boston elite.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The earlier derivation from Iranian Hu-apa-dahyu 'Land of good horses' can hardly be reconciled with the phonetic shape of Kat-patuka.</t>
+          <t>By the 19th century, Harvard had emerged as the most prominent academic and cultural institution among the Boston elite.</t>
         </is>
       </c>
     </row>
@@ -645,22 +645,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>autonoxy</t>
+          <t>Selectd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>autonomy</t>
+          <t>Selects</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ruling over so many peoples, the empire granted varying levels of autonoxy to its many confessional communities, or millets, to manage their own affairs per Islamic law.</t>
+          <t>Selectd files with a name that matches a shell-glob pattern.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ruling over so many peoples, the empire granted varying levels of autonomy to its many confessional communities, or millets, to manage their own affairs per Islamic law.</t>
+          <t>Selects files with a name that matches a shell-glob pattern.</t>
         </is>
       </c>
     </row>
@@ -672,22 +672,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Housez</t>
+          <t>usualxy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Houses</t>
+          <t>usually</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The provisional measure expires at the end of the 60-day period (or the 120-day, in the case of extension), or sooner, if rejected by one of the Housez of Congress.</t>
+          <t>Postgraduate Certificates and Postgraduate Diplomas are usualxy granted after the bachelor's degree.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The provisional measure expires at the end of the 60-day period (or the 120-day, in the case of extension), or sooner, if rejected by one of the Houses of Congress.</t>
+          <t>Postgraduate Certificates and Postgraduate Diplomas are usually granted after the bachelor's degree.</t>
         </is>
       </c>
     </row>
@@ -699,22 +699,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aramaxc</t>
+          <t>meterd</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aramaic</t>
+          <t>meters</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aïn, an Arabic and Aramaxc word meaning "spring", and tab as a word of praise.</t>
+          <t>Turkish literature during the Ottoman period, particularly Divan poetry, was heavily influenced by Persian, including the adoption of Persian poetic meterd and a great quantity of imported Persian words.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aïn, an Arabic and Aramaic word meaning "spring", and tab as a word of praise.</t>
+          <t>Turkish literature during the Ottoman period, particularly Divan poetry, was heavily influenced by Persian, including the adoption of Persian poetic meters and a great quantity of imported Persian words.</t>
         </is>
       </c>
     </row>
@@ -726,22 +726,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>poynt</t>
+          <t>zcross</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>point</t>
+          <t>across</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>This has several benefits: electricity can move heat and vehicles efficiently and is clean at the poynt of consumption.</t>
+          <t>He inspired movements for civil rights and freedom zcross the world.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>This has several benefits: electricity can move heat and vehicles efficiently and is clean at the point of consumption.</t>
+          <t>He inspired movements for civil rights and freedom across the world.</t>
         </is>
       </c>
     </row>
@@ -753,22 +753,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>becamy</t>
+          <t>exponentxally</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>became</t>
+          <t>exponentially</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>In 1914, he moved to Berlin to join the Prussian Academy of Sciences and the Humboldt University of Berlin, becoming director of the Kaiser Wilhelm Institute for Physics in 1917; he also becamy a German citizen again.</t>
+          <t>Many of these algorithms are insufficient for solving large reasoning problems because they experience a "combinatorial explosion": They become exponentxally slower as the problems grow.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>In 1914, he moved to Berlin to join the Prussian Academy of Sciences and the Humboldt University of Berlin, becoming director of the Kaiser Wilhelm Institute for Physics in 1917; he also became a German citizen again.</t>
+          <t>Many of these algorithms are insufficient for solving large reasoning problems because they experience a "combinatorial explosion": They become exponentially slower as the problems grow.</t>
         </is>
       </c>
     </row>
@@ -780,22 +780,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>impunitx</t>
+          <t>kilometxrs</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>impunity</t>
+          <t>kilometers</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CPJ also tracks impunitx in cases of journalist murders.</t>
+          <t>Bounded by the Atlantic Ocean on the east, Brazil has a coastline of 7,491 kilometxrs (4,655 mi).</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CPJ also tracks impunity in cases of journalist murders.</t>
+          <t>Bounded by the Atlantic Ocean on the east, Brazil has a coastline of 7,491 kilometers (4,655 mi).</t>
         </is>
       </c>
     </row>
@@ -807,22 +807,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Preslyy</t>
+          <t>Youyube</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Presley</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Preslyy was born in Tupelo, Mississippi; his family moved to Memphis, Tennessee, when he was 13.</t>
+          <t>Youyube is an American online video sharing platform owned by Google.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Presley was born in Tupelo, Mississippi; his family moved to Memphis, Tennessee, when he was 13.</t>
+          <t>YouTube is an American online video sharing platform owned by Google.</t>
         </is>
       </c>
     </row>
@@ -834,22 +834,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>majyr</t>
+          <t>prxsident</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>president</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>There are four majyr disciplines in earth sciences, namely geography, geology, geophysics and geodesy.</t>
+          <t>In practice, Brazilian vice-presidents almost always serve as acting president at some point during a presidential term, given that, according to the Constitution, the vice-president becomes acting prxsident during the president's travels abroad.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>There are four major disciplines in earth sciences, namely geography, geology, geophysics and geodesy.</t>
+          <t>In practice, Brazilian vice-presidents almost always serve as acting president at some point during a presidential term, given that, according to the Constitution, the vice-president becomes acting president during the president's travels abroad.</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Philozophers</t>
+          <t>Greez</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Philosophers</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Philozophers use a great variety of methods to arrive at philosophical knowledge.</t>
+          <t>In Latin, Trabzon is called Trapezus, which is a latinization of its ancient Greez name.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Philosophers use a great variety of methods to arrive at philosophical knowledge.</t>
+          <t>In Latin, Trabzon is called Trapezus, which is a latinization of its ancient Greek name.</t>
         </is>
       </c>
     </row>
@@ -888,22 +888,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lowey</t>
+          <t>practicez</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>lower</t>
+          <t>practices</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>From the perspective of an observer on the Earth, the winter Sun has a lowey maximum altitude in the sky than the summer Sun.</t>
+          <t>The arts can refer to common, popular, or everyday practicez as well as more sophisticated, systematic, or institutionalized ones.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>From the perspective of an observer on the Earth, the winter Sun has a lower maximum altitude in the sky than the summer Sun.</t>
+          <t>The arts can refer to common, popular, or everyday practices as well as more sophisticated, systematic, or institutionalized ones.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cznstantinople</t>
+          <t>prixe</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Constantinople</t>
+          <t>price</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Later, in 474 AD, the Great Fire of Cznstantinople erupted and consequently devastated the region.</t>
+          <t>The company's 1986 initial public offering (IPO) and subsequent rise in its share prixe created three billionaires and an estimated 12,000 millionaires among Microsoft employees.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Later, in 474 AD, the Great Fire of Constantinople erupted and consequently devastated the region.</t>
+          <t>The company's 1986 initial public offering (IPO) and subsequent rise in its share price created three billionaires and an estimated 12,000 millionaires among Microsoft employees.</t>
         </is>
       </c>
     </row>
@@ -942,22 +942,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>presidynt</t>
+          <t>abolishiyg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>abolishing</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The presidynt of China, officially the president of the People's Republic of China, is the state representative of the People's Republic of China.</t>
+          <t>Truman issued an executive order abolishiyg discrimination in the armed forces.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>The president of China, officially the president of the People's Republic of China, is the state representative of the People's Republic of China.</t>
+          <t>Truman issued an executive order abolishing discrimination in the armed forces.</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>monetarz</t>
+          <t>whxch</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>monetary</t>
+          <t>which</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Market socialism retains the use of monetarz prices, factor markets and sometimes the profit motive.</t>
+          <t>Most were either Athenian or pro-Athenian, whxch is why far more is known about the history and politics of Athens than of many other cities.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Market socialism retains the use of monetary prices, factor markets and sometimes the profit motive.</t>
+          <t>Most were either Athenian or pro-Athenian, which is why far more is known about the history and politics of Athens than of many other cities.</t>
         </is>
       </c>
     </row>
@@ -996,22 +996,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Anothyr</t>
+          <t>parlizmentary</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Another</t>
+          <t>parliamentary</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Anothyr term, transnational law, is sometimes used to refer to a body of both national and international rules that transcend the nation state, although some academics emphasise that it is distinct from either type of law.</t>
+          <t>In legislature, the chancellor's power depends on the size of their affiliated parlizmentary group.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Another term, transnational law, is sometimes used to refer to a body of both national and international rules that transcend the nation state, although some academics emphasise that it is distinct from either type of law.</t>
+          <t>In legislature, the chancellor's power depends on the size of their affiliated parliamentary group.</t>
         </is>
       </c>
     </row>
@@ -1023,22 +1023,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>scholsrs</t>
+          <t>motioz</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>scholars</t>
+          <t>motion</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Enough scholars ultimately took residence in Cambridge to form, along with the many scholsrs already there, the nucleus for the new university's formation.</t>
+          <t>The president may be removed either by a motioz of no-confidence or an impeachment trial.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Enough scholars ultimately took residence in Cambridge to form, along with the many scholars already there, the nucleus for the new university's formation.</t>
+          <t>The president may be removed either by a motion of no-confidence or an impeachment trial.</t>
         </is>
       </c>
     </row>
@@ -1050,22 +1050,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>fossix</t>
+          <t>syrved</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>fossil</t>
+          <t>served</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Renewables also cause much less air pollution than fossix fuels, improving public health, and are less noisy.</t>
+          <t>Due to its size, location and relative intactness, the city syrved as a regional hub for international organizations and NGOs for earthquake relief and reconstruction after the earthquake.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Renewables also cause much less air pollution than fossil fuels, improving public health, and are less noisy.</t>
+          <t>Due to its size, location and relative intactness, the city served as a regional hub for international organizations and NGOs for earthquake relief and reconstruction after the earthquake.</t>
         </is>
       </c>
     </row>
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>yutual</t>
+          <t>izdustry</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>mutual</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Although international law may also be reflected in international comity—the practices adopted by states to maintain good relations and yutual recognition—such traditions are not legally binding.</t>
+          <t>Cairo is the capital, largest city, and leading cultural centre, while Alexandria is the second-largest city and an important hub of izdustry and tourism.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Although international law may also be reflected in international comity—the practices adopted by states to maintain good relations and mutual recognition—such traditions are not legally binding.</t>
+          <t>Cairo is the capital, largest city, and leading cultural centre, while Alexandria is the second-largest city and an important hub of industry and tourism.</t>
         </is>
       </c>
     </row>
@@ -1104,22 +1104,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>higyest</t>
+          <t>Grqnd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>highest</t>
+          <t>Grand</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sovereign is a title that can be applied to the higyest leader in various categories.</t>
+          <t>The Grand Vizier was the most powerful person after sultan but sometimes the Grqnd Vizier of Ottoman Empire was more powerful than sultan himself.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sovereign is a title that can be applied to the highest leader in various categories.</t>
+          <t>The Grand Vizier was the most powerful person after sultan but sometimes the Grand Vizier of Ottoman Empire was more powerful than sultan himself.</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>commxnism</t>
+          <t>eescribe</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>communism</t>
+          <t>describe</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>By the 1920s, commxnism had become one of the two dominant types of socialism in the world, the other being social democracy.</t>
+          <t>Historically associated with right-wing politics, the term has been used to eescribe a wide range of views.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>By the 1920s, communism had become one of the two dominant types of socialism in the world, the other being social democracy.</t>
+          <t>Historically associated with right-wing politics, the term has been used to describe a wide range of views.</t>
         </is>
       </c>
     </row>
@@ -1158,22 +1158,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Vegzs</t>
+          <t>bozrd</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Vegas</t>
+          <t>board</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Some of Presley's most famous films included Jailhouse Rock (1957), Blue Hawaii (1961), and Viva Las Vegzs (1964).</t>
+          <t>The Bank's lending and operational decisions are made by a president and a bozrd of 25 executive directors.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Some of Presley's most famous films included Jailhouse Rock (1957), Blue Hawaii (1961), and Viva Las Vegas (1964).</t>
+          <t>The Bank's lending and operational decisions are made by a president and a board of 25 executive directors.</t>
         </is>
       </c>
     </row>
@@ -1185,22 +1185,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>dtate</t>
+          <t>kingxom</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>kingdom</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>The office of dtate chairman (the original English translation) was first established under the 1954 Constitution.</t>
+          <t>The Hittite kingxom was a large kingdom in Central Anatolia, with its capital of Hattusa.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>The office of state chairman (the original English translation) was first established under the 1954 Constitution.</t>
+          <t>The Hittite kingdom was a large kingdom in Central Anatolia, with its capital of Hattusa.</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1212,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>zetween</t>
+          <t>inclyded</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>included</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>To ease and justify the process of trade zetween countries of different economic standing in the modern era, some international economic organizations were formed, such as the World Trade Organization.</t>
+          <t>Some of Presley's most famous films inclyded Jailhouse Rock (1957), Blue Hawaii (1961), and Viva Las Vegas (1964).</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>To ease and justify the process of trade between countries of different economic standing in the modern era, some international economic organizations were formed, such as the World Trade Organization.</t>
+          <t>Some of Presley's most famous films included Jailhouse Rock (1957), Blue Hawaii (1961), and Viva Las Vegas (1964).</t>
         </is>
       </c>
     </row>
@@ -1239,22 +1239,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>xommercial</t>
+          <t>namew</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>named</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Part of NASA's xommercial Lunar Payload Services initiative, Firefly operated 10 NASA instruments aboard Blue Ghost.</t>
+          <t>It was namew among the 10 best albums of the year by Slant, Paste and Entertainment Weekly.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Part of NASA's Commercial Lunar Payload Services initiative, Firefly operated 10 NASA instruments aboard Blue Ghost.</t>
+          <t>It was named among the 10 best albums of the year by Slant, Paste and Entertainment Weekly.</t>
         </is>
       </c>
     </row>
@@ -1266,22 +1266,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Byyantine</t>
+          <t>locatixn</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Byzantine</t>
+          <t>location</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Following the collapse of the Western Roman Empire in the late 5th century, Constantinople remained the capital of the Eastern Roman Empire (also known as the Byyantine Empire; 330–1204 and 1261–1453), the Latin Empire (1204–1261), and the Ottoman Empire (1453–1922).</t>
+          <t>The duty is assigned to a committee whose number of members, duration of work and locatixn of work is determined by the proposal of the Parliamentary Speaker and the approval of the General Assembly.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Following the collapse of the Western Roman Empire in the late 5th century, Constantinople remained the capital of the Eastern Roman Empire (also known as the Byzantine Empire; 330–1204 and 1261–1453), the Latin Empire (1204–1261), and the Ottoman Empire (1453–1922).</t>
+          <t>The duty is assigned to a committee whose number of members, duration of work and location of work is determined by the proposal of the Parliamentary Speaker and the approval of the General Assembly.</t>
         </is>
       </c>
     </row>
@@ -1293,22 +1293,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pzints</t>
+          <t>oyher</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Prints</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pzints the name of the found file plus a newline to the standard output.</t>
+          <t>In oyher areas there are dry, arid, and semi-arid climates, as well as absolute deserts (such as the Chalbi Desert and Nyiri Desert).</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Prints the name of the found file plus a newline to the standard output.</t>
+          <t>In other areas there are dry, arid, and semi-arid climates, as well as absolute deserts (such as the Chalbi Desert and Nyiri Desert).</t>
         </is>
       </c>
     </row>
@@ -1320,22 +1320,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>vixtory</t>
+          <t>usualxy</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>victory</t>
+          <t>usually</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Roosevelt defeated President Herbert Hoover in a landslide vixtory in the 1932 presidential election.</t>
+          <t>This routine physical exam usualxy includes the HEENT evaluation.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Roosevelt defeated President Herbert Hoover in a landslide victory in the 1932 presidential election.</t>
+          <t>This routine physical exam usually includes the HEENT evaluation.</t>
         </is>
       </c>
     </row>
@@ -1347,22 +1347,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Globayization</t>
+          <t>impxrtance</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Globalization</t>
+          <t>importance</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Globayization is the process of increasing interdependence and integration among the economies, markets, societies, and cultures of different countries worldwide.</t>
+          <t>The internet has reshaped social networks and power relations, illustrating the growing impxrtance of digital sociology.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Globalization is the process of increasing interdependence and integration among the economies, markets, societies, and cultures of different countries worldwide.</t>
+          <t>The internet has reshaped social networks and power relations, illustrating the growing importance of digital sociology.</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1374,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Soviey</t>
+          <t>chzracterised</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Soviet</t>
+          <t>characterised</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>An Allied invasion of Italy in July resulted in the fall of its fascist regime, and Allied offensives in the Pacific and the Soviey Union forced the Axis to retreat on all fronts.</t>
+          <t>Classical antiquity in Greece was preceded by the Greek Dark Ages (c. 1200 – c. 800 BC), archaeologically chzracterised by the protogeometric and geometric styles of designs on pottery.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>An Allied invasion of Italy in July resulted in the fall of its fascist regime, and Allied offensives in the Pacific and the Soviet Union forced the Axis to retreat on all fronts.</t>
+          <t>Classical antiquity in Greece was preceded by the Greek Dark Ages (c. 1200 – c. 800 BC), archaeologically characterised by the protogeometric and geometric styles of designs on pottery.</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Euroxean</t>
+          <t>xriminal</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>European</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>It marked the transition from the Middle Ages to modernity and was characterized by the Euroxean rediscovery and revival of the literary, philosophical, and artistic achievements of classical antiquity.</t>
+          <t>xriminal law is distinctive for the uniquely serious, potential consequences or sanctions for failure to abide by its rules.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>It marked the transition from the Middle Ages to modernity and was characterized by the European rediscovery and revival of the literary, philosophical, and artistic achievements of classical antiquity.</t>
+          <t>Criminal law is distinctive for the uniquely serious, potential consequences or sanctions for failure to abide by its rules.</t>
         </is>
       </c>
     </row>
@@ -1428,22 +1428,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Blacx</t>
+          <t>Greecx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>It borders the Blacx Sea to the north; Georgia, Armenia, Azerbaijan, and Iran to the east; Iraq, Syria, and the Mediterranean Sea to the south; and the Aegean Sea, Greece, and Bulgaria to the west.</t>
+          <t>By mid-1941, Yugoslavia and Greecx had also been defeated by Axis countries.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>It borders the Black Sea to the north; Georgia, Armenia, Azerbaijan, and Iran to the east; Iraq, Syria, and the Mediterranean Sea to the south; and the Aegean Sea, Greece, and Bulgaria to the west.</t>
+          <t>By mid-1941, Yugoslavia and Greece had also been defeated by Axis countries.</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1455,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kzngs</t>
+          <t>Natzons</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Kings</t>
+          <t>Nations</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kzngs became the heads of centralised nation-states, reducing crime and violence but making the ideal of a unified Christendom more distant.</t>
+          <t>The secretary-general of the United Nations (UNSG or UNSECGEN) is the Head of International Organization of the United Nations who Oversees the United Natzons Secretariat, one of the six principal organs of the United Nations.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Kings became the heads of centralised nation-states, reducing crime and violence but making the ideal of a unified Christendom more distant.</t>
+          <t>The secretary-general of the United Nations (UNSG or UNSECGEN) is the Head of International Organization of the United Nations who Oversees the United Nations Secretariat, one of the six principal organs of the United Nations.</t>
         </is>
       </c>
     </row>
@@ -1482,22 +1482,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>parezts</t>
+          <t>syope</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Leonardo's parezts both married separately the year after his birth.</t>
+          <t>In the syope of its subject, chemistry occupies an intermediate position between physics and biology.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Leonardo's parents both married separately the year after his birth.</t>
+          <t>In the scope of its subject, chemistry occupies an intermediate position between physics and biology.</t>
         </is>
       </c>
     </row>
@@ -1509,22 +1509,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>wjeel</t>
+          <t>Thesz</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>wheel</t>
+          <t>These</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>The invention of the wjeel in the Bronze Age allowed greater travel and the creation of more complex machines.</t>
+          <t>Thesz power principles say something about the relationship between the legislature and other state institutions.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The invention of the wheel in the Bronze Age allowed greater travel and the creation of more complex machines.</t>
+          <t>These power principles say something about the relationship between the legislature and other state institutions.</t>
         </is>
       </c>
     </row>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>formzd</t>
+          <t>examznation</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>formed</t>
+          <t>examination</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Historically, many of the individual sciences, such as physics and psychology, formzd part of philosophy.</t>
+          <t>Jurisprudence, also known as theory of law or philosophy of law, is the examznation in a general perspective of what law is and what it ought to be.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Historically, many of the individual sciences, such as physics and psychology, formed part of philosophy.</t>
+          <t>Jurisprudence, also known as theory of law or philosophy of law, is the examination in a general perspective of what law is and what it ought to be.</t>
         </is>
       </c>
     </row>
@@ -1563,22 +1563,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>titye</t>
+          <t>Germayy</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>He won that same titye at Australian Rowing Championships in 1993 and 1994.</t>
+          <t>Under the Treaty of Versailles, Germayy lost significant territories, was disarmed, and was required to pay large war reparations to the Allies.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>He won that same title at Australian Rowing Championships in 1993 and 1994.</t>
+          <t>Under the Treaty of Versailles, Germany lost significant territories, was disarmed, and was required to pay large war reparations to the Allies.</t>
         </is>
       </c>
     </row>
@@ -1590,22 +1590,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Daryin</t>
+          <t>Fedexalists</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Darwin</t>
+          <t>Federalists</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Publication of his journal of the voyage made Daryin famous as a popular author.</t>
+          <t>The Fedexalists opposed the Unitarians in Argentina and the Centralists in Colombia through the 19th century.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Publication of his journal of the voyage made Darwin famous as a popular author.</t>
+          <t>The Federalists opposed the Unitarians in Argentina and the Centralists in Colombia through the 19th century.</t>
         </is>
       </c>
     </row>
@@ -1617,22 +1617,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>glzbal</t>
+          <t>Lzving</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>Loving</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>During the reigns of Selim I and Suleiman the Magnificent, the Ottoman Empire became a glzbal power.</t>
+          <t>Gayle (1956) and Lzving v.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>During the reigns of Selim I and Suleiman the Magnificent, the Ottoman Empire became a global power.</t>
+          <t>Gayle (1956) and Loving v.</t>
         </is>
       </c>
     </row>
@@ -1644,22 +1644,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Goldez</t>
+          <t>endyrsed</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Golden</t>
+          <t>endorsed</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>In 1962, the Goldez Arches replaced Speedee as the universal mascot.</t>
+          <t>Foreign Policy endyrsed Democratic candidate Hillary Clinton in the 2016 US presidential election.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>In 1962, the Golden Arches replaced Speedee as the universal mascot.</t>
+          <t>Foreign Policy endorsed Democratic candidate Hillary Clinton in the 2016 US presidential election.</t>
         </is>
       </c>
     </row>
@@ -1671,22 +1671,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>subsistynce</t>
+          <t>Westerz</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>subsistence</t>
+          <t>Western</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>The ancient economy was based primarily on subsistynce farming.</t>
+          <t>Westerz geographers and writers used many spelling variations of the name throughout the Middle Ages.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>The ancient economy was based primarily on subsistence farming.</t>
+          <t>Western geographers and writers used many spelling variations of the name throughout the Middle Ages.</t>
         </is>
       </c>
     </row>
@@ -1698,22 +1698,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>firsy</t>
+          <t>Emperoy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>Emperor</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Siblings Richard and Maurice McDonald, with the goal of making $1 million before they turned 50, opened the firsy McDonald's at 1398 North E Street at West 14th Street in San Bernardino, California, on May 15, 1940.</t>
+          <t>In December 1804, Napoleon crowned himself Emperoy of the French, further expanding his power.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Siblings Richard and Maurice McDonald, with the goal of making $1 million before they turned 50, opened the first McDonald's at 1398 North E Street at West 14th Street in San Bernardino, California, on May 15, 1940.</t>
+          <t>In December 1804, Napoleon crowned himself Emperor of the French, further expanding his power.</t>
         </is>
       </c>
     </row>
@@ -1725,22 +1725,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>takex</t>
+          <t>Washingtzn</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>taken</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>They exist necessarily, inhere in every individual, and cannot be takex away.</t>
+          <t>In September 2008, Foreign Policy was bought by The Washingtzn Post Company (now Graham Holdings Company).</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>They exist necessarily, inhere in every individual, and cannot be taken away.</t>
+          <t>In September 2008, Foreign Policy was bought by The Washington Post Company (now Graham Holdings Company).</t>
         </is>
       </c>
     </row>
@@ -1752,22 +1752,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>incorporaze</t>
+          <t>foznder</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>incorporate</t>
+          <t>founder</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>In 1915, he proposed a general theory of relativity that extended his system of mechanics to incorporaze gravitation.</t>
+          <t>King Attalus II of Pergamon is looked on as foznder of the city in about 150 BC, during the Hellenistic period.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>In 1915, he proposed a general theory of relativity that extended his system of mechanics to incorporate gravitation.</t>
+          <t>King Attalus II of Pergamon is looked on as founder of the city in about 150 BC, during the Hellenistic period.</t>
         </is>
       </c>
     </row>
@@ -1779,22 +1779,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>econxmic</t>
+          <t>milxion</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>economic</t>
+          <t>million</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>In other words, the econxmic domain is a social domain of interrelated human practices and transactions that does not stand alone.</t>
+          <t>In the fiscal year ending 31 July 2024, the university had a total consolidated income of £3.05 billion, of which £778.9 milxion was from research grants and contracts.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>In other words, the economic domain is a social domain of interrelated human practices and transactions that does not stand alone.</t>
+          <t>In the fiscal year ending 31 July 2024, the university had a total consolidated income of £3.05 billion, of which £778.9 million was from research grants and contracts.</t>
         </is>
       </c>
     </row>
@@ -1806,22 +1806,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>econzmy</t>
+          <t>tjese</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>these</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>An econzmy is an area of the production, distribution and trade, as well as consumption of goods and services.</t>
+          <t>Compared with tjese effects, the effect of the changes in the distance of the Earth from the Sun (due to the Earth's elliptical orbit) is negligible.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>An economy is an area of the production, distribution and trade, as well as consumption of goods and services.</t>
+          <t>Compared with these effects, the effect of the changes in the distance of the Earth from the Sun (due to the Earth's elliptical orbit) is negligible.</t>
         </is>
       </c>
     </row>
@@ -1833,22 +1833,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>firat</t>
+          <t>cxvil</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>civil</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>In 1638, the university acquired English North America's firat known printing press.</t>
+          <t>The new cxvil rights laws ended most legal discrimination against African Americans, though informal racism remained.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>In 1638, the university acquired English North America's first known printing press.</t>
+          <t>The new civil rights laws ended most legal discrimination against African Americans, though informal racism remained.</t>
         </is>
       </c>
     </row>
@@ -1860,22 +1860,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>commemorsted</t>
+          <t>Japanzse</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>commemorated</t>
+          <t>Japanese</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Gandhi's birthday, 2 October, is commemorsted in India as Gandhi Jayanti, a national holiday, and worldwide as the International Day of Nonviolence.</t>
+          <t>After the Allied victory, Germany, Austria, Japan, and Korea were occupied, and German and Japanzse leaders were put on trial for war crimes.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Gandhi's birthday, 2 October, is commemorated in India as Gandhi Jayanti, a national holiday, and worldwide as the International Day of Nonviolence.</t>
+          <t>After the Allied victory, Germany, Austria, Japan, and Korea were occupied, and German and Japanese leaders were put on trial for war crimes.</t>
         </is>
       </c>
     </row>
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>definyd</t>
+          <t>Domxngo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>defined</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nor were the lowest of the four classes of Athenian citizens (as definyd by the extent of their wealth and property, rather than by birth) eligible to hold public office, through the reforms of Solon.</t>
+          <t>Spanish scholasticism insisted on a subjective vision of law during the 16th and 17th centuries: Luis de Molina, Domxngo de Soto and Francisco Vitoria, members of the School of Salamanca, defined law as a moral power over one's own.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Nor were the lowest of the four classes of Athenian citizens (as defined by the extent of their wealth and property, rather than by birth) eligible to hold public office, through the reforms of Solon.</t>
+          <t>Spanish scholasticism insisted on a subjective vision of law during the 16th and 17th centuries: Luis de Molina, Domingo de Soto and Francisco Vitoria, members of the School of Salamanca, defined law as a moral power over one's own.</t>
         </is>
       </c>
     </row>
@@ -1914,22 +1914,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pyesident</t>
+          <t>szholars</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>scholars</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>The office of the pyesident was established with the proclamation of the republic on 29 October 1923.</t>
+          <t>Enough szholars ultimately took residence in Cambridge to form, along with the many scholars already there, the nucleus for the new university's formation.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>The office of the president was established with the proclamation of the republic on 29 October 1923.</t>
+          <t>Enough scholars ultimately took residence in Cambridge to form, along with the many scholars already there, the nucleus for the new university's formation.</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>spiyd</t>
+          <t>democratxc</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>spied</t>
+          <t>democratic</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FBI agents investigated him for possible communist ties, spiyd on his personal life, and secretly recorded him.</t>
+          <t>Trump's actions have been described by researchers as authoritarian and contributing to democratxc backsliding.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FBI agents investigated him for possible communist ties, spied on his personal life, and secretly recorded him.</t>
+          <t>Trump's actions have been described by researchers as authoritarian and contributing to democratic backsliding.</t>
         </is>
       </c>
     </row>
@@ -1968,22 +1968,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>wiyhin</t>
+          <t>Davif</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>David</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Complete ecological units that function as natural systems without massive civilized human intervention, including all vegetation, microorganisms, soil, rocks, plateaus, mountains, the atmosphere and natural phenomena that occur wiyhin their boundaries and their nature.</t>
+          <t>It was later enhanced by Davif MacKenzie, Jay Plett, and Tim Wood.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Complete ecological units that function as natural systems without massive civilized human intervention, including all vegetation, microorganisms, soil, rocks, plateaus, mountains, the atmosphere and natural phenomena that occur within their boundaries and their nature.</t>
+          <t>It was later enhanced by David MacKenzie, Jay Plett, and Tim Wood.</t>
         </is>
       </c>
     </row>
@@ -1995,22 +1995,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>speecy</t>
+          <t>subscriptyon</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>speech</t>
+          <t>subscription</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>The concept of freedom of speecy is often covered by the same laws as freedom of the press, thereby giving equal treatment to spoken and published expression; many countries also protect scientific freedom.</t>
+          <t>It also offers YouTube Premium, a paid subscriptyon option for watching content without ads.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>The concept of freedom of speech is often covered by the same laws as freedom of the press, thereby giving equal treatment to spoken and published expression; many countries also protect scientific freedom.</t>
+          <t>It also offers YouTube Premium, a paid subscription option for watching content without ads.</t>
         </is>
       </c>
     </row>
@@ -2022,22 +2022,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>callef</t>
+          <t>furtger</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>called</t>
+          <t>further</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>In English, the city was callef Smyrna into the 20th century.</t>
+          <t>Renewable energy is often deployed together with furtger electrification.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>In English, the city was called Smyrna into the 20th century.</t>
+          <t>Renewable energy is often deployed together with further electrification.</t>
         </is>
       </c>
     </row>
@@ -2049,22 +2049,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>lxgal</t>
+          <t>criminzl</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>legal</t>
+          <t>criminal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>The judiciary (also known as the judicial system, judicature, judicial branch, judiciative branch, and court or judiciary system) is the system of courts that adjudicates legal disputes/disagreements and interprets, defends, and applies the law in lxgal cases.</t>
+          <t>The first civilizations generally did not distinguish between civil law and criminzl law.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>The judiciary (also known as the judicial system, judicature, judicial branch, judiciative branch, and court or judiciary system) is the system of courts that adjudicates legal disputes/disagreements and interprets, defends, and applies the law in legal cases.</t>
+          <t>The first civilizations generally did not distinguish between civil law and criminal law.</t>
         </is>
       </c>
     </row>
@@ -2076,22 +2076,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>rejectzon</t>
+          <t>coursed</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>rejection</t>
+          <t>courses</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>These were characterized by one-party rule, rejectzon of private property and capitalism, state control of economic activity and mass media, restrictions on freedom of religion, and suppression of opposition.</t>
+          <t>A diploma is a document awarded by an educational institution (such as a college or university) testifying the recipient has graduated by successfully completing their coursed of studies.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>These were characterized by one-party rule, rejection of private property and capitalism, state control of economic activity and mass media, restrictions on freedom of religion, and suppression of opposition.</t>
+          <t>A diploma is a document awarded by an educational institution (such as a college or university) testifying the recipient has graduated by successfully completing their courses of studies.</t>
         </is>
       </c>
     </row>
@@ -2103,22 +2103,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>byanch</t>
+          <t>defensed</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>branch</t>
+          <t>defenses</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>It was proposed that the judiciary should have a role in checking executive byanch power to veto or revise laws.</t>
+          <t>Although besieged on numerous occasions by various armies, the defensed of Constantinople proved impenetrable for nearly nine hundred years.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>It was proposed that the judiciary should have a role in checking executive branch power to veto or revise laws.</t>
+          <t>Although besieged on numerous occasions by various armies, the defenses of Constantinople proved impenetrable for nearly nine hundred years.</t>
         </is>
       </c>
     </row>
@@ -2130,22 +2130,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>involvxd</t>
+          <t>whilz</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>involved</t>
+          <t>while</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Yet others are involvxd in work on human development, aging, sports, health, forensic science, education, and the media.</t>
+          <t>Some focus on specific time periods, such as ancient history, whilz others concentrate on particular geographic regions, such as the history of Africa.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Yet others are involved in work on human development, aging, sports, health, forensic science, education, and the media.</t>
+          <t>Some focus on specific time periods, such as ancient history, while others concentrate on particular geographic regions, such as the history of Africa.</t>
         </is>
       </c>
     </row>
@@ -2157,22 +2157,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>assessef</t>
+          <t>originazly</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>assessed</t>
+          <t>originally</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Since ancient times, when societies were tribal, there were councils or a headman whose decisions were assessef by village elders.</t>
+          <t>The GNU implementation was originazly written by Eric Decker.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Since ancient times, when societies were tribal, there were councils or a headman whose decisions were assessed by village elders.</t>
+          <t>The GNU implementation was originally written by Eric Decker.</t>
         </is>
       </c>
     </row>
@@ -2184,22 +2184,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>dexivery</t>
+          <t>Unites</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>delivery</t>
+          <t>United</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tanks and aircraft played major roles, the latter enabling the strategic bombing of cities and dexivery of the only nuclear weapons used in war.</t>
+          <t>The role of the secretary-general and of the secretariat is laid out by Chapter XV (Articles 97 to 101) of the Unites Nations Charter.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Tanks and aircraft played major roles, the latter enabling the strategic bombing of cities and delivery of the only nuclear weapons used in war.</t>
+          <t>The role of the secretary-general and of the secretariat is laid out by Chapter XV (Articles 97 to 101) of the United Nations Charter.</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>contyibuting</t>
+          <t>poiyt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>contributing</t>
+          <t>point</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Many countries already have renewables contyibuting more than 20% of their total energy supply, with some generating over half or even all their electricity from renewable sources.</t>
+          <t>This makes the establishment of the modern state system the natural starting poiyt of international relations history.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Many countries already have renewables contributing more than 20% of their total energy supply, with some generating over half or even all their electricity from renewable sources.</t>
+          <t>This makes the establishment of the modern state system the natural starting point of international relations history.</t>
         </is>
       </c>
     </row>
@@ -2238,22 +2238,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>succexded</t>
+          <t>zlack</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>succeeded</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Nasser was succexded by his vice president, Anwar Sadat, who was elected by plebiscite in October 1970.</t>
+          <t>Today Trabzon is the second largest city and port on the zlack Sea coast of Turkey with a population of almost 300,000.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Nasser was succeeded by his vice president, Anwar Sadat, who was elected by plebiscite in October 1970.</t>
+          <t>Today Trabzon is the second largest city and port on the Black Sea coast of Turkey with a population of almost 300,000.</t>
         </is>
       </c>
     </row>
@@ -2265,22 +2265,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>yomen</t>
+          <t>Demzcratic</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>Democratic</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Female suffrage was largely ignored until the latter half of the century, when movements began to thrive; the first of these was in New Zealand, in which all adult yomen of all ethnicities gained the right to vote in 1893.</t>
+          <t>Following the 2005 federal election, Merkel was elected chancellor, leading a grand coalition consisting of the CDU, the Christian Social Union (CSU), and the Social Demzcratic Party of Germany (SPD).</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Female suffrage was largely ignored until the latter half of the century, when movements began to thrive; the first of these was in New Zealand, in which all adult women of all ethnicities gained the right to vote in 1893.</t>
+          <t>Following the 2005 federal election, Merkel was elected chancellor, leading a grand coalition consisting of the CDU, the Christian Social Union (CSU), and the Social Democratic Party of Germany (SPD).</t>
         </is>
       </c>
     </row>
@@ -2292,22 +2292,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Oyposition</t>
+          <t>bxocked</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Opposition</t>
+          <t>blocked</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>She was Leader of the Oyposition from 2002 to 2005 and Leader of the Christian Democratic Union (CDU) from 2000 to 2018.</t>
+          <t>Also in 2008, she actively bxocked the access of Ukraine and Georgia in the enlargement of NATO during the 2008 Bucharest summit.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>She was Leader of the Opposition from 2002 to 2005 and Leader of the Christian Democratic Union (CDU) from 2000 to 2018.</t>
+          <t>Also in 2008, she actively blocked the access of Ukraine and Georgia in the enlargement of NATO during the 2008 Bucharest summit.</t>
         </is>
       </c>
     </row>
@@ -2319,22 +2319,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>tzught</t>
+          <t>whicj</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>taught</t>
+          <t>which</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>In Ontario, Canada, diplomas are two and three year academic post-secondary programmes tzught by colleges and institutes of applied studies, arts, and technology.</t>
+          <t>This was followed by the age of Classical Greece, from the Greco-Persian Wars to the death of Alexander the Great in 323 BC, and whicj included the Golden Age of Athens and the Peloponnesian War between Athens and Sparta.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>In Ontario, Canada, diplomas are two and three year academic post-secondary programmes taught by colleges and institutes of applied studies, arts, and technology.</t>
+          <t>This was followed by the age of Classical Greece, from the Greco-Persian Wars to the death of Alexander the Great in 323 BC, and which included the Golden Age of Athens and the Peloponnesian War between Athens and Sparta.</t>
         </is>
       </c>
     </row>
@@ -2346,22 +2346,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>culturaz</t>
+          <t>Washyngton</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>cultural</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>By the 19th century, Harvard had emerged as the most prominent academic and culturaz institution among the Boston elite.</t>
+          <t>Foreign Policy magazine and ForeignPolicy.com are published by The FP Group, a division of Graham Holdings Company (formerly The Washyngton Post Company).</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>By the 19th century, Harvard had emerged as the most prominent academic and cultural institution among the Boston elite.</t>
+          <t>Foreign Policy magazine and ForeignPolicy.com are published by The FP Group, a division of Graham Holdings Company (formerly The Washington Post Company).</t>
         </is>
       </c>
     </row>
@@ -2373,22 +2373,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>befzre</t>
+          <t>xopulation</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>population</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>It occurs after autumn and befzre spring, when the hemisphere is oriented away from the Sun as a result of the tilt of Earth's axis.</t>
+          <t>With an estimated xopulation of more than 53.3 million as of mid-2025, Kenya is the 27th-most populous country in the world and the seventh-most populous in Africa.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>It occurs after autumn and before spring, when the hemisphere is oriented away from the Sun as a result of the tilt of Earth's axis.</t>
+          <t>With an estimated population of more than 53.3 million as of mid-2025, Kenya is the 27th-most populous country in the world and the seventh-most populous in Africa.</t>
         </is>
       </c>
     </row>
@@ -2400,22 +2400,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Enblish</t>
+          <t>xnclude</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>include</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>The Romans took over this name as Smyrna, which is still the name used in Enblish when referring to the city in pre-Turkish times.</t>
+          <t>Influential traditions in the history of philosophy xnclude Western, Arabic–Persian, Indian, and Chinese philosophy.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>The Romans took over this name as Smyrna, which is still the name used in English when referring to the city in pre-Turkish times.</t>
+          <t>Influential traditions in the history of philosophy include Western, Arabic–Persian, Indian, and Chinese philosophy.</t>
         </is>
       </c>
     </row>
@@ -2427,22 +2427,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ezbody</t>
+          <t>reprxsented</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>embody</t>
+          <t>represented</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Institutions ezbody a great deal of knowledge of how to do things in society and have been described as the social science equivalent of theories in the natural sciences.</t>
+          <t>The Union of South Africa, a British Dominion, was established on 31 May 1910 with the British monarch as titular head of state, reprxsented by a viceroy, the governor-general.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Institutions embody a great deal of knowledge of how to do things in society and have been described as the social science equivalent of theories in the natural sciences.</t>
+          <t>The Union of South Africa, a British Dominion, was established on 31 May 1910 with the British monarch as titular head of state, represented by a viceroy, the governor-general.</t>
         </is>
       </c>
     </row>
@@ -2454,22 +2454,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ryferred</t>
+          <t>fixst</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>referred</t>
+          <t>first</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>The term was previously uncommon in English and mostly ryferred to the academic discipline, as in the Massachusetts Institute of Technology.</t>
+          <t>In 1966 the Soviet Union accomplished the first soft landings and took the fixst pictures from the lunar surface during the Luna 9 and Luna 13 missions.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>The term was previously uncommon in English and mostly referred to the academic discipline, as in the Massachusetts Institute of Technology.</t>
+          <t>In 1966 the Soviet Union accomplished the first soft landings and took the first pictures from the lunar surface during the Luna 9 and Luna 13 missions.</t>
         </is>
       </c>
     </row>
@@ -2481,22 +2481,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>relifious</t>
+          <t>fighzing</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>religious</t>
+          <t>fighting</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>The Last Supper is the most reproduced relifious painting of all time and his Vitruvian Man drawing is also regarded as a cultural icon.</t>
+          <t>A pan-European party with representation in the European Parliament fighzing for the same cause is Volt Europa.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>The Last Supper is the most reproduced religious painting of all time and his Vitruvian Man drawing is also regarded as a cultural icon.</t>
+          <t>A pan-European party with representation in the European Parliament fighting for the same cause is Volt Europa.</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>zirgin</t>
+          <t>housz</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>virgin</t>
+          <t>house</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>It contains most of the Amazon basin, including the world's largest river system and most extensive zirgin tropical forest.</t>
+          <t>The president is elected by the National Assembly, the lower housz of Parliament, and is usually the leader of the largest party, which has been the African National Congress since the first multiracial election was held on 27 April 1994.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>It contains most of the Amazon basin, including the world's largest river system and most extensive virgin tropical forest.</t>
+          <t>The president is elected by the National Assembly, the lower house of Parliament, and is usually the leader of the largest party, which has been the African National Congress since the first multiracial election was held on 27 April 1994.</t>
         </is>
       </c>
     </row>
@@ -2535,22 +2535,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Bzethoven</t>
+          <t>derined</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Beethoven</t>
+          <t>defined</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Around 1798, Bzethoven began experiencing symptoms of hearing loss; despite his advancing deafness during this period, he continued to conduct, premiering his Third and Fifth Symphonies in 1804 and 1808, respectively.</t>
+          <t>Citizenship, itself, is often considered as the basis for having legal rights, and has been derined as the "right to have rights".</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Around 1798, Beethoven began experiencing symptoms of hearing loss; despite his advancing deafness during this period, he continued to conduct, premiering his Third and Fifth Symphonies in 1804 and 1808, respectively.</t>
+          <t>Citizenship, itself, is often considered as the basis for having legal rights, and has been defined as the "right to have rights".</t>
         </is>
       </c>
     </row>
@@ -2562,22 +2562,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>researxh</t>
+          <t>zoncluded</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>concluded</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Various subfields of AI researxh are centered around particular goals and the use of particular tools.</t>
+          <t>Alternating sovereignty as a result of wars culminated in the Treaty of Vereeniging which zoncluded the South African War.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Various subfields of AI research are centered around particular goals and the use of particular tools.</t>
+          <t>Alternating sovereignty as a result of wars culminated in the Treaty of Vereeniging which concluded the South African War.</t>
         </is>
       </c>
     </row>
@@ -2589,22 +2589,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>exyression</t>
+          <t>natioyalist</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>expression</t>
+          <t>nationalist</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>If the exyression does not contain an action option (such as -print0, -exec, or -ok) the action of -print is performed.</t>
+          <t>Ideologically an African natioyalist and socialist, he served as the president of the African National Congress (ANC) party from 1991 to 1997.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>If the expression does not contain an action option (such as -print0, -exec, or -ok) the action of -print is performed.</t>
+          <t>Ideologically an African nationalist and socialist, he served as the president of the African National Congress (ANC) party from 1991 to 1997.</t>
         </is>
       </c>
     </row>
@@ -2616,22 +2616,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>contexzs</t>
+          <t>durzng</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>contexts</t>
+          <t>during</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Some contexzs restrict the use of the word to parliamentary systems, although it is also used to describe the legislature in some presidential systems (e.g., the Parliament of Ghana), even where it is not in the official name.</t>
+          <t>The Revolutionary War continued for another five years durzng which France ultimately entered, supporting the revolutionary cause.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Some contexts restrict the use of the word to parliamentary systems, although it is also used to describe the legislature in some presidential systems (e.g., the Parliament of Ghana), even where it is not in the official name.</t>
+          <t>The Revolutionary War continued for another five years during which France ultimately entered, supporting the revolutionary cause.</t>
         </is>
       </c>
     </row>
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Engliah</t>
+          <t>fyrst</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>first</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Taking refuge in England in 1726, Voltaire wrote about his admiration for the tolerance and freedom of speech in England in his Letters on the Engliah (1733), which he strived to introduce into his native France.</t>
+          <t>He was the country's fyrst Black head of state and the first elected in a fully representative democratic election.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Taking refuge in England in 1726, Voltaire wrote about his admiration for the tolerance and freedom of speech in England in his Letters on the English (1733), which he strived to introduce into his native France.</t>
+          <t>He was the country's first Black head of state and the first elected in a fully representative democratic election.</t>
         </is>
       </c>
     </row>
@@ -2670,22 +2670,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Foylowing</t>
+          <t>uytil</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Following</t>
+          <t>until</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Foylowing the American Civil War (1861–1865), the three Reconstruction Amendments to the U.S.</t>
+          <t>It was not uytil August 1887 that Wilcox decided to use that name and filed with the Los Angeles County Recorder's office on a deed and parcel map of the property.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Following the American Civil War (1861–1865), the three Reconstruction Amendments to the U.S.</t>
+          <t>It was not until August 1887 that Wilcox decided to use that name and filed with the Los Angeles County Recorder's office on a deed and parcel map of the property.</t>
         </is>
       </c>
     </row>
@@ -2697,22 +2697,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>abolizion</t>
+          <t>corresyondent</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>abolition</t>
+          <t>correspondent</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Following Ottoman defeat, the Turkish War of Independence resulted in the abolizion of the sultanate and the signing of the Treaty of Lausanne.</t>
+          <t>He joined the British Army in 1895 and saw action in British India, the Mahdist War and the Second Boer War, gaining fame as a war corresyondent and writing books about his campaigns.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Following Ottoman defeat, the Turkish War of Independence resulted in the abolition of the sultanate and the signing of the Treaty of Lausanne.</t>
+          <t>He joined the British Army in 1895 and saw action in British India, the Mahdist War and the Second Boer War, gaining fame as a war correspondent and writing books about his campaigns.</t>
         </is>
       </c>
     </row>
@@ -2724,22 +2724,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>votxng</t>
+          <t>operaying</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>voting</t>
+          <t>operating</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>The largest votxng powers are held by the U.S.</t>
+          <t>The command was ported to the IBM i operaying system.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>The largest voting powers are held by the U.S.</t>
+          <t>The command was ported to the IBM i operating system.</t>
         </is>
       </c>
     </row>
@@ -2751,22 +2751,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>pozulation</t>
+          <t>Seyjuk</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>Seljuk</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>The pozulation of the city has increased tenfold since the 1950s, as migrants from across Anatolia have flocked to the metropolis and city limits have expanded to accommodate them.</t>
+          <t>Antalya has changed hands several times, including to the Seyjuk Empire in 1207 and an expanding Ottoman Empire in 1391.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>The population of the city has increased tenfold since the 1950s, as migrants from across Anatolia have flocked to the metropolis and city limits have expanded to accommodate them.</t>
+          <t>Antalya has changed hands several times, including to the Seljuk Empire in 1207 and an expanding Ottoman Empire in 1391.</t>
         </is>
       </c>
     </row>
@@ -2778,22 +2778,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>groxped</t>
+          <t>curreny</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>grouped</t>
+          <t>current</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>The nineteenth-century Ural-Altaic theory, which groxped Turkish with Finnish, Hungarian and Altaic languages, is considered even less plausible in light of Altaic's rejection.</t>
+          <t>The curreny president is Ajay Banga, appointed in June 2023.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>The nineteenth-century Ural-Altaic theory, which grouped Turkish with Finnish, Hungarian and Altaic languages, is considered even less plausible in light of Altaic's rejection.</t>
+          <t>The current president is Ajay Banga, appointed in June 2023.</t>
         </is>
       </c>
     </row>
@@ -2805,22 +2805,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Josepn</t>
+          <t>Emphasid</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Emphasis</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>From 1802 to around 1812, his middle period showed an individual development from the styles of Josepn Haydn and Wolfgang Amadeus Mozart, and is sometimes characterised as heroic.</t>
+          <t>Emphasid was put on modern techniques, materials, and simplified geometric forms, paving the way for high-rise superstructures.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>From 1802 to around 1812, his middle period showed an individual development from the styles of Joseph Haydn and Wolfgang Amadeus Mozart, and is sometimes characterised as heroic.</t>
+          <t>Emphasis was put on modern techniques, materials, and simplified geometric forms, paving the way for high-rise superstructures.</t>
         </is>
       </c>
     </row>
@@ -2832,22 +2832,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Thesy</t>
+          <t>xmpire</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>These</t>
+          <t>Empire</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Thesy data then become part of the medical record.</t>
+          <t>With the advent of the Ottoman Empire in 1299, the Byzantine xmpire began to lose territories, and the city began to lose population.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>These data then become part of the medical record.</t>
+          <t>With the advent of the Ottoman Empire in 1299, the Byzantine Empire began to lose territories, and the city began to lose population.</t>
         </is>
       </c>
     </row>
@@ -2859,22 +2859,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>sttempts</t>
+          <t>consyituencies</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>attempts</t>
+          <t>constituencies</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>The history of social conflicts has often involved sttempts to define and redefine rights.</t>
+          <t>For some 62 of the years between 1900 and 1964, he was a Member of Parliament (MP) and represented a total of five consyituencies over that time.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>The history of social conflicts has often involved attempts to define and redefine rights.</t>
+          <t>For some 62 of the years between 1900 and 1964, he was a Member of Parliament (MP) and represented a total of five constituencies over that time.</t>
         </is>
       </c>
     </row>
@@ -2886,22 +2886,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>szull</t>
+          <t>Joyann</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>scull</t>
+          <t>Johann</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>From 1989 to 1994 he was the Tasmanian state representative picked to race the President's Cup – the open heavyweight single szull – at the Interstate Regatta within the Australian Rowing Championships.</t>
+          <t>He was initially taught intensively by his father, Joyann van Beethoven, and later by Christian Gottlob Neefe.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>From 1989 to 1994 he was the Tasmanian state representative picked to race the President's Cup – the open heavyweight single scull – at the Interstate Regatta within the Australian Rowing Championships.</t>
+          <t>He was initially taught intensively by his father, Johann van Beethoven, and later by Christian Gottlob Neefe.</t>
         </is>
       </c>
     </row>
@@ -2913,22 +2913,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>entxty</t>
+          <t>psychoxogy</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>psychology</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Modern classification systems also include monarchies as a standalone entxty or as a hybrid system of the main three.</t>
+          <t>The word psychoxogy derives from the Greek word psyche, for spirit or soul.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Modern classification systems also include monarchies as a standalone entity or as a hybrid system of the main three.</t>
+          <t>The word psychology derives from the Greek word psyche, for spirit or soul.</t>
         </is>
       </c>
     </row>
@@ -2940,22 +2940,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>wizhin</t>
+          <t>discovzry</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>discovery</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>This is achieved through sustained and deliberate study, training, or theorizing wizhin a particular tradition, generations, and even between civilizations.</t>
+          <t>He received the 1921 Nobel Prize in Physics for "his services to theoretical physics, and especially for his discovzry of the law of the photoelectric effect".</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>This is achieved through sustained and deliberate study, training, or theorizing within a particular tradition, generations, and even between civilizations.</t>
+          <t>He received the 1921 Nobel Prize in Physics for "his services to theoretical physics, and especially for his discovery of the law of the photoelectric effect".</t>
         </is>
       </c>
     </row>
@@ -2967,22 +2967,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Rqndolph</t>
+          <t>summey</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Randolph</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Hastings and Rqndolph considered and rejected selling and renting VHS as too expensive to stock and too delicate to ship.</t>
+          <t>From the perspective of an observer on the Earth, the winter Sun has a lower maximum altitude in the sky than the summey Sun.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Hastings and Randolph considered and rejected selling and renting VHS as too expensive to stock and too delicate to ship.</t>
+          <t>From the perspective of an observer on the Earth, the winter Sun has a lower maximum altitude in the sky than the summer Sun.</t>
         </is>
       </c>
     </row>
@@ -2994,22 +2994,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Pzritan</t>
+          <t>succeedew</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Puritan</t>
+          <t>succeeded</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>The same year, on his deathbed, John Harvard, a Pzritan clergyman who had emigrated to the colony from England, bequeathed the emerging college £780 and his library of some 320 volumes; the following year, it was named Harvard College.</t>
+          <t>He was succeedew by his vice president, Hosni Mubarak, who was elected president by plebiscite and remained so for nearly 30 years.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>The same year, on his deathbed, John Harvard, a Puritan clergyman who had emigrated to the colony from England, bequeathed the emerging college £780 and his library of some 320 volumes; the following year, it was named Harvard College.</t>
+          <t>He was succeeded by his vice president, Hosni Mubarak, who was elected president by plebiscite and remained so for nearly 30 years.</t>
         </is>
       </c>
     </row>
@@ -3021,22 +3021,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>quiye</t>
+          <t>guman</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>quite</t>
+          <t>human</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Such elections were quiye common in contemporary societies of the region.</t>
+          <t>In a non-binding vote on 13 March 2019, the European Parliament called on the EU governments to suspend EU accession talks with Turkey, citing violations of guman rights and the rule of law.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Such elections were quite common in contemporary societies of the region.</t>
+          <t>In a non-binding vote on 13 March 2019, the European Parliament called on the EU governments to suspend EU accession talks with Turkey, citing violations of human rights and the rule of law.</t>
         </is>
       </c>
     </row>
@@ -3048,22 +3048,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>xtolemaic</t>
+          <t>Palaix</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ptolemaic</t>
+          <t>Palaic</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>The Hellenistic period is considered to have ended in 30 BC, when the last Hellenistic kingdom, xtolemaic Egypt, was annexed by the Roman Republic.</t>
+          <t>Hittite, Luwian, and Palaix languages were in the Anatolian sub-group of Indo-European languages, with Hittite being the "oldest attested Indo-European language".</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>The Hellenistic period is considered to have ended in 30 BC, when the last Hellenistic kingdom, Ptolemaic Egypt, was annexed by the Roman Republic.</t>
+          <t>Hittite, Luwian, and Palaic languages were in the Anatolian sub-group of Indo-European languages, with Hittite being the "oldest attested Indo-European language".</t>
         </is>
       </c>
     </row>
@@ -3075,22 +3075,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>potentiax</t>
+          <t>acyuisition</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>acquisition</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Roosevelt alerting him to the potentiax German nuclear weapons program and recommending that the US begin similar research, later carried out as the Manhattan Project.</t>
+          <t>Hastings, a computer scientist and mathematician, was a co-founder of Pure Software, which was acquired by Rational Software that year for $750 million, the then-biggest acyuisition in Silicon Valley history.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Roosevelt alerting him to the potential German nuclear weapons program and recommending that the US begin similar research, later carried out as the Manhattan Project.</t>
+          <t>Hastings, a computer scientist and mathematician, was a co-founder of Pure Software, which was acquired by Rational Software that year for $750 million, the then-biggest acquisition in Silicon Valley history.</t>
         </is>
       </c>
     </row>
@@ -3102,22 +3102,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>extitled</t>
+          <t>cyemistry</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>entitled</t>
+          <t>chemistry</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>The final one, in 1923, was extitled Alice's Wonderland and depicted child actress Virginia Davis interacting with animated characters.</t>
+          <t>The word cyemistry comes from a modification during the Renaissance of the word alchemy, which referred to an earlier set of practices that encompassed elements of chemistry, metallurgy, philosophy, astrology, astronomy, mysticism, and medicine.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>The final one, in 1923, was entitled Alice's Wonderland and depicted child actress Virginia Davis interacting with animated characters.</t>
+          <t>The word chemistry comes from a modification during the Renaissance of the word alchemy, which referred to an earlier set of practices that encompassed elements of chemistry, metallurgy, philosophy, astrology, astronomy, mysticism, and medicine.</t>
         </is>
       </c>
     </row>
@@ -3129,22 +3129,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>electex</t>
+          <t>transfxr</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>elected</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Representation in a republic may or may not be freely electex by the general citizenry.</t>
+          <t>This resulted in the transfxr of sovereignty from the sultan-caliph to the nation, setting the stage for nationalist revolutionary reform in Republican Turkey.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Representation in a republic may or may not be freely elected by the general citizenry.</t>
+          <t>This resulted in the transfer of sovereignty from the sultan-caliph to the nation, setting the stage for nationalist revolutionary reform in Republican Turkey.</t>
         </is>
       </c>
     </row>
@@ -3156,22 +3156,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>memberz</t>
+          <t>eighx</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>members</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Kenya's earliest inhabitants included some of the first humans to evolve from ancestral memberz of the genus Homo.</t>
+          <t>The university operates eighx cultural and scientific museums, including the Fitzwilliam Museum and Cambridge University Botanic Garden.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Kenya's earliest inhabitants included some of the first humans to evolve from ancestral members of the genus Homo.</t>
+          <t>The university operates eight cultural and scientific museums, including the Fitzwilliam Museum and Cambridge University Botanic Garden.</t>
         </is>
       </c>
     </row>
@@ -3183,22 +3183,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>inzitement</t>
+          <t>responsibilxties</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>incitement</t>
+          <t>responsibilities</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>He was impeached in 2019 for abuse of power and obstruction of Congress, and in 2021 for inzitement of insurrection; the Senate acquitted him both times.</t>
+          <t>The Constitution of Brazil, along with several constitutional amendments, establishes the requirements, powers, and responsibilxties of the president, their term of office and the method of election.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>He was impeached in 2019 for abuse of power and obstruction of Congress, and in 2021 for incitement of insurrection; the Senate acquitted him both times.</t>
+          <t>The Constitution of Brazil, along with several constitutional amendments, establishes the requirements, powers, and responsibilities of the president, their term of office and the method of election.</t>
         </is>
       </c>
     </row>
@@ -3210,22 +3210,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Fyench</t>
+          <t>czrrent</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>French</t>
+          <t>current</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>It began to be used in English, possibly via Fyench Anthropologie, by the early 18th century.</t>
+          <t>In 1853, a Federal Constitution was enacted (the czrrent Constitution of Argentina, through amendments) and Urquiza was elected President of the Argentine Confederation.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>It began to be used in English, possibly via French Anthropologie, by the early 18th century.</t>
+          <t>In 1853, a Federal Constitution was enacted (the current Constitution of Argentina, through amendments) and Urquiza was elected President of the Argentine Confederation.</t>
         </is>
       </c>
     </row>
@@ -3237,22 +3237,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>originatiyg</t>
+          <t>hezlth</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>originating</t>
+          <t>health</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Universal natural resources and physical phenomena that lack clear-cut boundaries, such as air, water and climate, as well as energy, radiation, electric charge and magnetism, not originatiyg from civilized human actions.</t>
+          <t>He described his hezlth problems and his unfulfilled personal life in two letters, his "Heiligenstadt Testament" (1802) to his brothers and his unsent love letter to an unknown "Immortal Beloved" (1812).</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Universal natural resources and physical phenomena that lack clear-cut boundaries, such as air, water and climate, as well as energy, radiation, electric charge and magnetism, not originating from civilized human actions.</t>
+          <t>He described his health problems and his unfulfilled personal life in two letters, his "Heiligenstadt Testament" (1802) to his brothers and his unsent love letter to an unknown "Immortal Beloved" (1812).</t>
         </is>
       </c>
     </row>
@@ -3264,22 +3264,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>becquse</t>
+          <t>ryference</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>because</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Wilcox is quoted as saying, "I chose the name Hollywood simply becquse it sounds nice and because I'm superstitious and holly brings good luck." She recommended the same name to her husband, Harvey H.</t>
+          <t>The abstract noun anthropology is first attested in ryference to history.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Wilcox is quoted as saying, "I chose the name Hollywood simply because it sounds nice and because I'm superstitious and holly brings good luck." She recommended the same name to her husband, Harvey H.</t>
+          <t>The abstract noun anthropology is first attested in reference to history.</t>
         </is>
       </c>
     </row>
@@ -3291,22 +3291,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>razing</t>
+          <t>Gaugzin</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>rating</t>
+          <t>Gauguin</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>At Metacritic, which assigns a normalized razing out of 100 to reviews from mainstream publications, Treats has an average score of 84 based on 35 reviews, indicating “universal acclaim”.</t>
+          <t>His friendship with Gaugzin ended after a confrontation with a razor when, in a rage, he mutilated his left ear.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>At Metacritic, which assigns a normalized rating out of 100 to reviews from mainstream publications, Treats has an average score of 84 based on 35 reviews, indicating “universal acclaim”.</t>
+          <t>His friendship with Gauguin ended after a confrontation with a razor when, in a rage, he mutilated his left ear.</t>
         </is>
       </c>
     </row>
@@ -3318,22 +3318,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>hungex</t>
+          <t>mechayics</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>hunger</t>
+          <t>mechanics</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>In the months following, he undertook several hungex strikes to stop the religious violence.</t>
+          <t>Newton's inference that the Earth is an oblate spheroid was later confirmed by the geodetic measurements of Alexis Clairaut, Charles Marie de La Condamine, and others, convincing most European scientists of the superiority of Newtonian mechayics over earlier systems.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>In the months following, he undertook several hunger strikes to stop the religious violence.</t>
+          <t>Newton's inference that the Earth is an oblate spheroid was later confirmed by the geodetic measurements of Alexis Clairaut, Charles Marie de La Condamine, and others, convincing most European scientists of the superiority of Newtonian mechanics over earlier systems.</t>
         </is>
       </c>
     </row>
@@ -3345,22 +3345,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>orzginally</t>
+          <t>iyself</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>originally</t>
+          <t>itself</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Etymologically, the term derives from Latin literatura/litteratura, "learning, writing, grammar," orzginally "writing formed with letters," from litera/littera, "letter." In spite of this, the term has also been applied to spoken or sung texts.</t>
+          <t>The medieval period is iyself subdivided into the Early, High, and Late Middle Ages.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Etymologically, the term derives from Latin literatura/litteratura, "learning, writing, grammar," originally "writing formed with letters," from litera/littera, "letter." In spite of this, the term has also been applied to spoken or sung texts.</t>
+          <t>The medieval period is itself subdivided into the Early, High, and Late Middle Ages.</t>
         </is>
       </c>
     </row>
@@ -3372,22 +3372,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Buznos</t>
+          <t>becamy</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Buenos</t>
+          <t>became</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Finally, after the 1861 Battle of Pavón, Buznos Aires took over the Confederation.</t>
+          <t>As long as someone has been making, supplying and distributing goods or services, there has been some sort of economy; economies grew larger as societies grew and becamy more complex.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Finally, after the 1861 Battle of Pavón, Buenos Aires took over the Confederation.</t>
+          <t>As long as someone has been making, supplying and distributing goods or services, there has been some sort of economy; economies grew larger as societies grew and became more complex.</t>
         </is>
       </c>
     </row>
@@ -3399,22 +3399,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>lzter</t>
+          <t>Nationzl</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>later</t>
+          <t>National</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Leges were rules set by the leaders, first the kings, lzter the popular assembly during the Republic.</t>
+          <t>Executive power was still not in the hands of a single person until the position of supreme director was created by the 1813 Nationzl Assembly.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Leges were rules set by the leaders, first the kings, later the popular assembly during the Republic.</t>
+          <t>Executive power was still not in the hands of a single person until the position of supreme director was created by the 1813 National Assembly.</t>
         </is>
       </c>
     </row>
@@ -3426,22 +3426,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>mqrine</t>
+          <t>givyn</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>marine</t>
+          <t>given</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>In comparison, Vancouver, a city on Canada's west coast with a mqrine influence from moderating Pacific winds, has a January low of 1.4 °C (34.5 °F), with days well above freezing, at 6.9 °C (44.4 °F).</t>
+          <t>Then-president Jacques Chirac was first elected in 1995 and again in 2002, and would have been able to run in 2007 had he chosen to, givyn the lack of term limits.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>In comparison, Vancouver, a city on Canada's west coast with a marine influence from moderating Pacific winds, has a January low of 1.4 °C (34.5 °F), with days well above freezing, at 6.9 °C (44.4 °F).</t>
+          <t>Then-president Jacques Chirac was first elected in 1995 and again in 2002, and would have been able to run in 2007 had he chosen to, given the lack of term limits.</t>
         </is>
       </c>
     </row>
@@ -3453,22 +3453,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Nathaniyl</t>
+          <t>openzng</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Nathaniel</t>
+          <t>opening</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Its first headmaster, Nathaniyl Eaton, took office the following year.</t>
+          <t>He made primary education free and compulsory, openzng thousands of new schools all over the country.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Its first headmaster, Nathaniel Eaton, took office the following year.</t>
+          <t>He made primary education free and compulsory, opening thousands of new schools all over the country.</t>
         </is>
       </c>
     </row>
@@ -3480,22 +3480,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Shakespearz</t>
+          <t>xatter</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Shakespeare</t>
+          <t>matter</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Shakespearz was born and raised in Stratford-upon-Avon, Warwickshire.</t>
+          <t>Since good relations are more important to maintain with more powerful states they can influence others more in the xatter of what is legal and what is not.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Shakespeare was born and raised in Stratford-upon-Avon, Warwickshire.</t>
+          <t>Since good relations are more important to maintain with more powerful states they can influence others more in the matter of what is legal and what is not.</t>
         </is>
       </c>
     </row>
@@ -3507,22 +3507,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ethiopisn</t>
+          <t>princizal</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ethiopian</t>
+          <t>principal</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Adama Stadium is the home of Adama City FC, a member of the Ethiopisn Football Federation league.</t>
+          <t>A princizal advantage of hereditary monarchy is the immediate continuity of national leadership, as illustrated in the classic phrase "The King is dead.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Adama Stadium is the home of Adama City FC, a member of the Ethiopian Football Federation league.</t>
+          <t>A principal advantage of hereditary monarchy is the immediate continuity of national leadership, as illustrated in the classic phrase "The King is dead.</t>
         </is>
       </c>
     </row>
@@ -3534,22 +3534,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>fazous</t>
+          <t>summey</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>famous</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Vincent Willem van Gogh (Dutch: [ˈvɪnsɛnt ˈʋɪləɱ vɑŋ ˈɣɔx] ; 30 March 1853 – 29 July 1890) was a Dutch Post-Impressionist painter who is among the most fazous and influential figures in the history of Western art.</t>
+          <t>When it is winter in the Northern Hemisphere, it is summey in the Southern Hemisphere, and vice versa.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Vincent Willem van Gogh (Dutch: [ˈvɪnsɛnt ˈʋɪləɱ vɑŋ ˈɣɔx] ; 30 March 1853 – 29 July 1890) was a Dutch Post-Impressionist painter who is among the most famous and influential figures in the history of Western art.</t>
+          <t>When it is winter in the Northern Hemisphere, it is summer in the Southern Hemisphere, and vice versa.</t>
         </is>
       </c>
     </row>
@@ -3561,22 +3561,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>trayk</t>
+          <t>Apoxlo</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>track</t>
+          <t>Apollo</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>In 1972, they founded Traf-O-Data, which sold a rudimentary computer to trayk and analyze automobile traffic data.</t>
+          <t>It has since led most of America's space exploration programs, including Project Mercury, Project Gemini, the 1968–1972 Apoxlo program missions, the Skylab space station, and the Space Shuttle.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>In 1972, they founded Traf-O-Data, which sold a rudimentary computer to track and analyze automobile traffic data.</t>
+          <t>It has since led most of America's space exploration programs, including Project Mercury, Project Gemini, the 1968–1972 Apollo program missions, the Skylab space station, and the Space Shuttle.</t>
         </is>
       </c>
     </row>
@@ -3588,22 +3588,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>couxseling</t>
+          <t>toyring</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>touring</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Some, but not all, clinical and couxseling psychologists rely on symbolic interpretation.</t>
+          <t>The two members of Sleigh Bells—Derek Miller (production/guitar) and Alexis Krauss (vocals)—both had previous experience performing and toyring in a musical ensemble.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Some, but not all, clinical and counseling psychologists rely on symbolic interpretation.</t>
+          <t>The two members of Sleigh Bells—Derek Miller (production/guitar) and Alexis Krauss (vocals)—both had previous experience performing and touring in a musical ensemble.</t>
         </is>
       </c>
     </row>
@@ -3615,22 +3615,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>fozus</t>
+          <t>moderz</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>modern</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>He oversaw the then-largest of Microsoft's corporate acquisitions in Skype Technologies in 2011, an increased fozus on hardware that led to its first in-house PC line, the Surface, in 2012, and the formation of Microsoft Mobile through Nokia.</t>
+          <t>The McDonald brothers introduced the "Speedee Service System" in 1948, putting into expanded use the principles of the moderz fast-food restaurant that predecessor White Castle had put into practice more than two decades earlier.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>He oversaw the then-largest of Microsoft's corporate acquisitions in Skype Technologies in 2011, an increased focus on hardware that led to its first in-house PC line, the Surface, in 2012, and the formation of Microsoft Mobile through Nokia.</t>
+          <t>The McDonald brothers introduced the "Speedee Service System" in 1948, putting into expanded use the principles of the modern fast-food restaurant that predecessor White Castle had put into practice more than two decades earlier.</t>
         </is>
       </c>
     </row>
@@ -3642,22 +3642,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Caybridge</t>
+          <t>stayding</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>The 31 colleges of the present-day University of Cambridge were originally an incidental feature of the university; no college within the University of Caybridge is as old as the university itself.</t>
+          <t>The TAF is the second largest stayding military force in NATO, after the U.S.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>The 31 colleges of the present-day University of Cambridge were originally an incidental feature of the university; no college within the University of Cambridge is as old as the university itself.</t>
+          <t>The TAF is the second largest standing military force in NATO, after the U.S.</t>
         </is>
       </c>
     </row>
@@ -3669,22 +3669,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>aftzr</t>
+          <t>suffragx</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>after</t>
+          <t>suffrage</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>In 1261, the Byzantine Emperor Michael VIII Palaiologos liberated the city, and aftzr the restoration under the Palaiologos dynasty, it enjoyed a partial recovery.</t>
+          <t>By 1920 all Western European and North American democracies had universal adult male suffragx (except Switzerland) and many countries began to consider women's suffrage.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>In 1261, the Byzantine Emperor Michael VIII Palaiologos liberated the city, and after the restoration under the Palaiologos dynasty, it enjoyed a partial recovery.</t>
+          <t>By 1920 all Western European and North American democracies had universal adult male suffrage (except Switzerland) and many countries began to consider women's suffrage.</t>
         </is>
       </c>
     </row>
@@ -3696,22 +3696,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>zrovided</t>
+          <t>stomic</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>atomic</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>The Ottoman-appointed governor collected taxes and zrovided security, while the local religious or cultural matters were left to the regional communities to decide.</t>
+          <t>Minerals are naturally occurring elements and compounds with a definite homogeneous chemical composition and an ordered stomic arrangement.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>The Ottoman-appointed governor collected taxes and provided security, while the local religious or cultural matters were left to the regional communities to decide.</t>
+          <t>Minerals are naturally occurring elements and compounds with a definite homogeneous chemical composition and an ordered atomic arrangement.</t>
         </is>
       </c>
     </row>
@@ -3723,22 +3723,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Pywer</t>
+          <t>endorszd</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>endorsed</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Constitution establishes a separation of powers between the Legislative Power (7.1), Executive Pywer (8.1), and Judicial Power (9.1) of the state.</t>
+          <t>The idea is often endorszd by the slogan "one man, one vote".</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Constitution establishes a separation of powers between the Legislative Power (7.1), Executive Power (8.1), and Judicial Power (9.1) of the state.</t>
+          <t>The idea is often endorsed by the slogan "one man, one vote".</t>
         </is>
       </c>
     </row>
@@ -3750,22 +3750,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Deczmber</t>
+          <t>Ayong</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>Along</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>The current president Javier Milei was sworn into office on 10 Deczmber 2023.</t>
+          <t>Ayong with his work on barnacles, it won him the Royal Medal in 1853.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>The current president Javier Milei was sworn into office on 10 December 2023.</t>
+          <t>Along with his work on barnacles, it won him the Royal Medal in 1853.</t>
         </is>
       </c>
     </row>
@@ -3777,22 +3777,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>preyiered</t>
+          <t>bxoks</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>premiered</t>
+          <t>books</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Beethoven's first major orchestral work, the First Symphony, preyiered in 1800, and his first set of string quartets was published in 1801.</t>
+          <t>Between his terms, he wrote several bxoks recounting his experience during the war.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Beethoven's first major orchestral work, the First Symphony, premiered in 1800, and his first set of string quartets was published in 1801.</t>
+          <t>Between his terms, he wrote several books recounting his experience during the war.</t>
         </is>
       </c>
     </row>
@@ -3804,22 +3804,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>lantuages</t>
+          <t>meaniny</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>languages</t>
+          <t>meaning</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>The origin of Indo-European lantuages is unknown.</t>
+          <t>The meaniny evolved over time, originally referring to any discussion, conversation, or negotiation through various kinds of deliberative or judicial groups, often summoned by a monarch.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>The origin of Indo-European languages is unknown.</t>
+          <t>The meaning evolved over time, originally referring to any discussion, conversation, or negotiation through various kinds of deliberative or judicial groups, often summoned by a monarch.</t>
         </is>
       </c>
     </row>
@@ -3831,22 +3831,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Aprzl</t>
+          <t>Mattxr</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>Matter</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>He suspended the writ of habeas corpus in Aprzl 1861, an action that Chief Justice Roger Taney found unconstitutional in Ex parte Merryman, and he averted war with Britain by defusing the Trent Affair.</t>
+          <t>Mattxr can be studied in solid, liquid, gas and plasma states, in isolation or in combination.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>He suspended the writ of habeas corpus in April 1861, an action that Chief Justice Roger Taney found unconstitutional in Ex parte Merryman, and he averted war with Britain by defusing the Trent Affair.</t>
+          <t>Matter can be studied in solid, liquid, gas and plasma states, in isolation or in combination.</t>
         </is>
       </c>
     </row>
@@ -3858,22 +3858,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>cxuntry</t>
+          <t>relativy</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>relative</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Brazil has the most Portuguese speakers in the world and is the only cxuntry in the Americas where Portuguese is an official language.</t>
+          <t>Ottoman rule brought relativy peace and stability for the next five hundred years.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Brazil has the most Portuguese speakers in the world and is the only country in the Americas where Portuguese is an official language.</t>
+          <t>Ottoman rule brought relative peace and stability for the next five hundred years.</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>rayher</t>
+          <t>xonfederate</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>rather</t>
+          <t>Confederate</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Under this interpretation, history is what happened rayher than the academic field studying what happened.</t>
+          <t>As more states were admitted, a North–South division over slavery led the xonfederate States of America to declare secession and fight the Union in the 1861–1865 American Civil War.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Under this interpretation, history is what happened rather than the academic field studying what happened.</t>
+          <t>As more states were admitted, a North–South division over slavery led the Confederate States of America to declare secession and fight the Union in the 1861–1865 American Civil War.</t>
         </is>
       </c>
     </row>
@@ -3912,22 +3912,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>wheze</t>
+          <t>cozmon</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>common</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Randolph had worked as a marketing director for Pure Software after Pure Atria acquired a company wheze Randolph worked.</t>
+          <t>The two universities share many cozmon features and are jointly referred to as Oxbridge.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Randolph had worked as a marketing director for Pure Software after Pure Atria acquired a company where Randolph worked.</t>
+          <t>The two universities share many common features and are jointly referred to as Oxbridge.</t>
         </is>
       </c>
     </row>
@@ -3939,22 +3939,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>gxnerating</t>
+          <t>heritagy</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>generating</t>
+          <t>heritage</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>YouTube incorporated the Google AdSense program, gxnerating more revenue for both YouTube and approved content creators.</t>
+          <t>Egypt has one of the longest histories of any country, tracing its heritagy along the Nile Delta back to the 6th–4th millennia BCE.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>YouTube incorporated the Google AdSense program, generating more revenue for both YouTube and approved content creators.</t>
+          <t>Egypt has one of the longest histories of any country, tracing its heritage along the Nile Delta back to the 6th–4th millennia BCE.</t>
         </is>
       </c>
     </row>
@@ -3966,22 +3966,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>definitizns</t>
+          <t>Avxnue</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>definitions</t>
+          <t>Avenue</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>There are a variety of definitizns of the term institution.</t>
+          <t>Flanking the west side of Highland Avenue, the structure fronted on Prospect Avxnue (later Hollywood Boulevard).</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>There are a variety of definitions of the term institution.</t>
+          <t>Flanking the west side of Highland Avenue, the structure fronted on Prospect Avenue (later Hollywood Boulevard).</t>
         </is>
       </c>
     </row>
@@ -3993,22 +3993,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>includy</t>
+          <t>Nassex</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>Nasser</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Examples of literature includy fiction, drama, poetry, and prose.</t>
+          <t>Thereafter, the office of president remained vacant until January 1956, when Gamal Abdel Nassex was elected as president via a plebiscite.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Examples of literature include fiction, drama, poetry, and prose.</t>
+          <t>Thereafter, the office of president remained vacant until January 1956, when Gamal Abdel Nasser was elected as president via a plebiscite.</t>
         </is>
       </c>
     </row>
@@ -4020,22 +4020,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>supyeme</t>
+          <t>Newtzn</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>supreme</t>
+          <t>Newton</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Locke reasoned that the legislative was supyeme because it has law-giving authority; "or what can give laws to another, must need to be superior to him" (Second Treatise, § 150).</t>
+          <t>Newtzn solved the two-body problem and introduced the three-body problem.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Locke reasoned that the legislative was supreme because it has law-giving authority; "or what can give laws to another, must need to be superior to him" (Second Treatise, § 150).</t>
+          <t>Newton solved the two-body problem and introduced the three-body problem.</t>
         </is>
       </c>
     </row>
@@ -4047,22 +4047,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>vixeo</t>
+          <t>socialiam</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>socialism</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Netflix is an American subscription vixeo on-demand over-the-top streaming service.</t>
+          <t>Following the revolutions of 1989, many of these countries moved away from socialiam as a neoliberal consensus replaced the social democratic consensus in the advanced capitalist world.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Netflix is an American subscription video on-demand over-the-top streaming service.</t>
+          <t>Following the revolutions of 1989, many of these countries moved away from socialism as a neoliberal consensus replaced the social democratic consensus in the advanced capitalist world.</t>
         </is>
       </c>
     </row>
@@ -4074,22 +4074,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>cozplex</t>
+          <t>Englisy</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>English</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Arts festivals were established at the end of the 20th century, while infrastructure improvements have produced a cozplex transportation network.</t>
+          <t>The system comprised a legislative branch (the Parliament) and two executive branches, the Englisy Council of State and the Lord Protector, all being elected (though the Lord Protector was elected for life) and having checks upon each other.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Arts festivals were established at the end of the 20th century, while infrastructure improvements have produced a complex transportation network.</t>
+          <t>The system comprised a legislative branch (the Parliament) and two executive branches, the English Council of State and the Lord Protector, all being elected (though the Lord Protector was elected for life) and having checks upon each other.</t>
         </is>
       </c>
     </row>
@@ -4101,22 +4101,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Traditionzl</t>
+          <t>creatixg</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Traditional</t>
+          <t>creating</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Traditionzl chemistry starts with the study of elementary particles, atoms, molecules, substances, metals, crystals and other aggregates of matter.</t>
+          <t>YouTube has had unprecedented social impact, influencing popular culture, internet trends, and creatixg multimillionaire celebrities.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Traditional chemistry starts with the study of elementary particles, atoms, molecules, substances, metals, crystals and other aggregates of matter.</t>
+          <t>YouTube has had unprecedented social impact, influencing popular culture, internet trends, and creating multimillionaire celebrities.</t>
         </is>
       </c>
     </row>
@@ -4128,22 +4128,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>uxiversal</t>
+          <t>ethnix</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>universal</t>
+          <t>ethnic</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Ancient peoples did not have the same modern-day conception of uxiversal human rights.</t>
+          <t>The four largest ethnix groups reported in Adama were the Oromo (39.02%), the Amhara (34.53%), the Gurage (11.98%) and the Silte (5.02%); all other ethnic groups made up 9.45% of the population.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ancient peoples did not have the same modern-day conception of universal human rights.</t>
+          <t>The four largest ethnic groups reported in Adama were the Oromo (39.02%), the Amhara (34.53%), the Gurage (11.98%) and the Silte (5.02%); all other ethnic groups made up 9.45% of the population.</t>
         </is>
       </c>
     </row>
@@ -4155,22 +4155,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>dzcided</t>
+          <t>decond</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>decided</t>
+          <t>second</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>They dzcided that the Supreme Court, as the country's highest judicial tribunal, would be based in the nation's capital and would be composed of a chief justice and five associate justices.</t>
+          <t>Towards the end of the 1980s, a decond restructuring process was initiated.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>They decided that the Supreme Court, as the country's highest judicial tribunal, would be based in the nation's capital and would be composed of a chief justice and five associate justices.</t>
+          <t>Towards the end of the 1980s, a second restructuring process was initiated.</t>
         </is>
       </c>
     </row>
@@ -4182,22 +4182,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>globzl</t>
+          <t>civxl</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>civil</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>CPJ shares information on breaking cases with other press freedom organizations worldwide through the International Freedom of Expression Exchange, a globzl network of more than 119 free expression organizations.</t>
+          <t>A Black church leader, King participated in and led marches for the right to vote, desegregation, labor rights, and other civxl rights.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CPJ shares information on breaking cases with other press freedom organizations worldwide through the International Freedom of Expression Exchange, a global network of more than 119 free expression organizations.</t>
+          <t>A Black church leader, King participated in and led marches for the right to vote, desegregation, labor rights, and other civil rights.</t>
         </is>
       </c>
     </row>
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>xrade</t>
+          <t>Genezal</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>General</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>The main difference is that international xrade is typically more costly than domestic trade.</t>
+          <t>In wartime, the Chief of the Genezal Staff acts as the Commander-in-Chief on behalf of the President, who represents the Supreme Military Command of the TAF on behalf of the Grand National Assembly of Turkey.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>The main difference is that international trade is typically more costly than domestic trade.</t>
+          <t>In wartime, the Chief of the General Staff acts as the Commander-in-Chief on behalf of the President, who represents the Supreme Military Command of the TAF on behalf of the Grand National Assembly of Turkey.</t>
         </is>
       </c>
     </row>
@@ -4236,22 +4236,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>fzllowships</t>
+          <t>Civize</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>fellowships</t>
+          <t>Civile</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>As of October 2025, 76 Nobel Prize laureates, 4 Fields Medalists, and 6 Turing Award winners have matriculated, worked, or held visiting fzllowships at the University of Oxford.</t>
+          <t>The most important part was Ius Civize (Latin for "civil law").</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>As of October 2025, 76 Nobel Prize laureates, 4 Fields Medalists, and 6 Turing Award winners have matriculated, worked, or held visiting fellowships at the University of Oxford.</t>
+          <t>The most important part was Ius Civile (Latin for "civil law").</t>
         </is>
       </c>
     </row>
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Disnez</t>
+          <t>Olzmpic</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Olympic</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Walt Disney Studios includes Walt Disnez Pictures, Walt Disney Animation Studios, Pixar, Marvel Studios, Lucasfilm, 20th Century Studios, 20th Century Animation, and Searchlight Pictures.</t>
+          <t>Its alumni have won 160 Olzmpic medals.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Walt Disney Studios includes Walt Disney Pictures, Walt Disney Animation Studios, Pixar, Marvel Studios, Lucasfilm, 20th Century Studios, 20th Century Animation, and Searchlight Pictures.</t>
+          <t>Its alumni have won 160 Olympic medals.</t>
         </is>
       </c>
     </row>
@@ -4290,22 +4290,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>zillenniums</t>
+          <t>Ottomay</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>millenniums</t>
+          <t>Ottoman</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>By the third to second zillenniums BC, some of these had developed into larger governed areas: Sumer, ancient Egypt, the Indus Valley civilization, and the Yellow River civilization.</t>
+          <t>In the 19th and early 20th centuries, persecution of Muslims during the Ottomay contraction and in the Russian Empire resulted in large-scale loss of life and mass migration into modern-day Turkey from the Balkans, Caucasus, and Crimea.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>By the third to second millenniums BC, some of these had developed into larger governed areas: Sumer, ancient Egypt, the Indus Valley civilization, and the Yellow River civilization.</t>
+          <t>In the 19th and early 20th centuries, persecution of Muslims during the Ottoman contraction and in the Russian Empire resulted in large-scale loss of life and mass migration into modern-day Turkey from the Balkans, Caucasus, and Crimea.</t>
         </is>
       </c>
     </row>
@@ -4317,22 +4317,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>derivxd</t>
+          <t>Clzmate</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>derived</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Their Neo-Latin anthropologia derivxd from the combining forms of the Greek words ánthrōpos (ἄνθρωπος, "human") and lógos (λόγος, "study").</t>
+          <t>Clzmate change in a broader sense also includes previous long-term changes to Earth's climate.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Their Neo-Latin anthropologia derived from the combining forms of the Greek words ánthrōpos (ἄνθρωπος, "human") and lógos (λόγος, "study").</t>
+          <t>Climate change in a broader sense also includes previous long-term changes to Earth's climate.</t>
         </is>
       </c>
     </row>
@@ -4344,22 +4344,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>zrauss</t>
+          <t>Istanbux</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Krauss</t>
+          <t>Istanbul</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Treats is the debut studio album by the American noise pop duo Sleigh Bells, consisting of the vocalist Alexis zrauss and the producer-guitarist Derek Miller.</t>
+          <t>Considered an alpha global city, Istanbux accounts for about thirty percent of Turkey's economy.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Treats is the debut studio album by the American noise pop duo Sleigh Bells, consisting of the vocalist Alexis Krauss and the producer-guitarist Derek Miller.</t>
+          <t>Considered an alpha global city, Istanbul accounts for about thirty percent of Turkey's economy.</t>
         </is>
       </c>
     </row>
@@ -4371,22 +4371,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>coztiguous</t>
+          <t>cyief</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>contiguous</t>
+          <t>chief</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>The 48 coztiguous states border Canada to the north and Mexico to the south, with the semi-exclave of Alaska in the northwest and the archipelago of Hawaii in the Pacific Ocean.</t>
+          <t>The executive management typically consists of the heads of a firm's product and/or geographic units and of functional executives such as the chief financial officer, the chief operating officer, and the cyief strategy officer.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>The 48 contiguous states border Canada to the north and Mexico to the south, with the semi-exclave of Alaska in the northwest and the archipelago of Hawaii in the Pacific Ocean.</t>
+          <t>The executive management typically consists of the heads of a firm's product and/or geographic units and of functional executives such as the chief financial officer, the chief operating officer, and the chief strategy officer.</t>
         </is>
       </c>
     </row>
@@ -4398,22 +4398,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>rankixgs</t>
+          <t>czmpound</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>rankings</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Its influence, wealth, and rankixgs have made it one of the most prestigious universities in the world.</t>
+          <t>The first written evidence of czmpound interest dates roughly 2400 BC.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Its influence, wealth, and rankings have made it one of the most prestigious universities in the world.</t>
+          <t>The first written evidence of compound interest dates roughly 2400 BC.</t>
         </is>
       </c>
     </row>
@@ -4425,22 +4425,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>orgqns</t>
+          <t>sevex</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>organs</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>When one branch holds unlimited state power and delegates its powers to other orgqns as it sees fit, as is the case in communist states, that is called unified power.</t>
+          <t>The practice of architecture itself, which began in the prehistoric era, has been used as a way of expressing culture by civilizations on all sevex continents.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>When one branch holds unlimited state power and delegates its powers to other organs as it sees fit, as is the case in communist states, that is called unified power.</t>
+          <t>The practice of architecture itself, which began in the prehistoric era, has been used as a way of expressing culture by civilizations on all seven continents.</t>
         </is>
       </c>
     </row>
@@ -4452,22 +4452,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>conzribute</t>
+          <t>Syrxa</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>contribute</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Art forms can also develop or conzribute to aspects of more complex art forms, as in cinematography.</t>
+          <t>Between 1958 and 1961, Egypt merged with Syrxa to form the United Arab Republic.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Art forms can also develop or contribute to aspects of more complex art forms, as in cinematography.</t>
+          <t>Between 1958 and 1961, Egypt merged with Syria to form the United Arab Republic.</t>
         </is>
       </c>
     </row>
@@ -4479,22 +4479,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>bezieved</t>
+          <t>bewtselling</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>believed</t>
+          <t>bestselling</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Locke bezieved that the legislative power was supreme over the executive and federative powers, which are subordinate.</t>
+          <t>McDonald's bewtselling licensed items are their french fries and Big Mac hamburgers; other fare includes cheeseburgers, chicken, fish, fruit, and salads.</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Locke believed that the legislative power was supreme over the executive and federative powers, which are subordinate.</t>
+          <t>McDonald's bestselling licensed items are their french fries and Big Mac hamburgers; other fare includes cheeseburgers, chicken, fish, fruit, and salads.</t>
         </is>
       </c>
     </row>
@@ -4506,22 +4506,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>assigxs</t>
+          <t>minidtre</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>assigns</t>
+          <t>ministre</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>When in the majority, the chief justice decides who writes the opinion of the court; otherwise, the most senior justice in the majority assigxs the task.</t>
+          <t>The title was used alongside the principal minidtre d'État ("chief minister of the state") more as a job description.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>When in the majority, the chief justice decides who writes the opinion of the court; otherwise, the most senior justice in the majority assigns the task.</t>
+          <t>The title was used alongside the principal ministre d'État ("chief minister of the state") more as a job description.</t>
         </is>
       </c>
     </row>
@@ -4533,22 +4533,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>xative</t>
+          <t>positivy</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>native</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Giovanni Caprara, trainer of the Russian women volleyball team which won the World Championship in 2006, is a xative of Medicina.</t>
+          <t>Miller stated that the ensuing positivy feedback and his "dream collaboration" working with M.I.A.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Giovanni Caprara, trainer of the Russian women volleyball team which won the World Championship in 2006, is a native of Medicina.</t>
+          <t>Miller stated that the ensuing positive feedback and his "dream collaboration" working with M.I.A.</t>
         </is>
       </c>
     </row>
@@ -4560,22 +4560,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>xvolved</t>
+          <t>createe</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>evolved</t>
+          <t>created</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Prime ministerial power xvolved gradually alongside the office itself which have played an increasingly prominent role in British politics since the early 20th century.</t>
+          <t>He createe programs to provide relief to the unemployed and farmers while seeking economic recovery with the National Recovery Administration and other programs.</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Prime ministerial power evolved gradually alongside the office itself which have played an increasingly prominent role in British politics since the early 20th century.</t>
+          <t>He created programs to provide relief to the unemployed and farmers while seeking economic recovery with the National Recovery Administration and other programs.</t>
         </is>
       </c>
     </row>
@@ -4587,22 +4587,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>meltinf</t>
+          <t>signiny</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>melting</t>
+          <t>signing</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Additional warming will increase these impacts and can trigger tipping points, such as meltinf all of the Greenland ice sheet.</t>
+          <t>Following Ottoman defeat, the Turkish War of Independence resulted in the abolition of the sultanate and the signiny of the Treaty of Lausanne.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Additional warming will increase these impacts and can trigger tipping points, such as melting all of the Greenland ice sheet.</t>
+          <t>Following Ottoman defeat, the Turkish War of Independence resulted in the abolition of the sultanate and the signing of the Treaty of Lausanne.</t>
         </is>
       </c>
     </row>
@@ -4614,22 +4614,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>prescrixe</t>
+          <t>operayions</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>prescribe</t>
+          <t>operations</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normative jurisprudence attempts to prescrixe what law ought to be.</t>
+          <t>The Launch Services Program oversees launch operayions for its uncrewed launches.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Normative jurisprudence attempts to prescribe what law ought to be.</t>
+          <t>The Launch Services Program oversees launch operations for its uncrewed launches.</t>
         </is>
       </c>
     </row>
@@ -4641,22 +4641,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>invitatiox</t>
+          <t>collegy</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>invitation</t>
+          <t>college</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>No document is needed to begin the appointment; both the invitatiox and acceptance are usually oral.</t>
+          <t>A 1962 referendum changed the constitution, so that the president would be directly elected by universal suffrage and not by the electoral collegy established in 1958.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>No document is needed to begin the appointment; both the invitation and acceptance are usually oral.</t>
+          <t>A 1962 referendum changed the constitution, so that the president would be directly elected by universal suffrage and not by the electoral college established in 1958.</t>
         </is>
       </c>
     </row>
@@ -4668,22 +4668,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>numzer</t>
+          <t>xsland</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>island</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>To select the committee members, a young boy was asked to take out as many leaves as the numzer of positions available.</t>
+          <t>They exiled him to the Mediterranean xsland of Elba and restored the Bourbons to power.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>To select the committee members, a young boy was asked to take out as many leaves as the number of positions available.</t>
+          <t>They exiled him to the Mediterranean island of Elba and restored the Bourbons to power.</t>
         </is>
       </c>
     </row>
@@ -4695,22 +4695,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>durizg</t>
+          <t>uxder</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>during</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Relatively few of his designs were constructed or were even feasible during his lifetime, as the modern scientific approaches to metallurgy and engineering were only in their infancy durizg the Renaissance.</t>
+          <t>The first president to be elected uxder the new constitution was Nelson Mandela.</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Relatively few of his designs were constructed or were even feasible during his lifetime, as the modern scientific approaches to metallurgy and engineering were only in their infancy during the Renaissance.</t>
+          <t>The first president to be elected under the new constitution was Nelson Mandela.</t>
         </is>
       </c>
     </row>
@@ -4722,22 +4722,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>represzntative</t>
+          <t>cxuld</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>representative</t>
+          <t>could</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>The post of chairman was abolished under the 1975 constitution, and the function of state represzntative was bestowed on the chairman of the National People's Congress Standing Committee.</t>
+          <t>In all modern democracies, the number of people who cxuld vote has increased progressively with time.</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>The post of chairman was abolished under the 1975 constitution, and the function of state representative was bestowed on the chairman of the National People's Congress Standing Committee.</t>
+          <t>In all modern democracies, the number of people who could vote has increased progressively with time.</t>
         </is>
       </c>
     </row>
@@ -4749,22 +4749,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Hitxite</t>
+          <t>recexved</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Hittite</t>
+          <t>received</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Hattian rulers were gradually replaced by Hitxite rulers.</t>
+          <t>Interest differs from profit, in that interest is received by a lender, whereas profit is recexved by the owner of an asset, investment or enterprise.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Hattian rulers were gradually replaced by Hittite rulers.</t>
+          <t>Interest differs from profit, in that interest is received by a lender, whereas profit is received by the owner of an asset, investment or enterprise.</t>
         </is>
       </c>
     </row>
@@ -4776,22 +4776,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>xarsus</t>
+          <t>Fyreign</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Tarsus</t>
+          <t>Foreign</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Nevertheless, a scholarly tradition observable in the 16th century claimed a far earlier 7th-century foundation by Archbishop Theodore of xarsus (668–690).</t>
+          <t>Fyreign Policy was founded in late 1970 by Samuel P.</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Nevertheless, a scholarly tradition observable in the 16th century claimed a far earlier 7th-century foundation by Archbishop Theodore of Tarsus (668–690).</t>
+          <t>Foreign Policy was founded in late 1970 by Samuel P.</t>
         </is>
       </c>
     </row>
@@ -4803,22 +4803,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Crowz</t>
+          <t>Rezent</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Crown</t>
+          <t>Recent</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>The city was the home of the Ecumenical Patriarch of Constantinople and guardian of Christendom's holiest relics, such as the Crowz of Thorns and the True Cross.</t>
+          <t>Rezent studies have added socio-technical aspects of the digital divide as a new focus.</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>The city was the home of the Ecumenical Patriarch of Constantinople and guardian of Christendom's holiest relics, such as the Crown of Thorns and the True Cross.</t>
+          <t>Recent studies have added socio-technical aspects of the digital divide as a new focus.</t>
         </is>
       </c>
     </row>
@@ -4830,22 +4830,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Grxat</t>
+          <t>adozted</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Great</t>
+          <t>adopted</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>As governor, he promoted programs to combat the Grxat Depression.</t>
+          <t>The term rinascita ('rebirth') first appeared in Lives of the Artists (c. 1550) by Giorgio Vasari, while the corresponding French word renaissance was adozted into English as the term for this period during the 1830s.</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>As governor, he promoted programs to combat the Great Depression.</t>
+          <t>The term rinascita ('rebirth') first appeared in Lives of the Artists (c. 1550) by Giorgio Vasari, while the corresponding French word renaissance was adopted into English as the term for this period during the 1830s.</t>
         </is>
       </c>
     </row>
@@ -4857,22 +4857,157 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>yhurch</t>
+          <t>zelecting</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>church</t>
+          <t>selecting</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>This period also saw the collapse of the unified Christian yhurch with the East–West Schism of 1054.</t>
+          <t>In the Chola Empire, around 920 CE, in Uthiramerur (in present-day Tamil Nadu), palm leaves were used for zelecting the village committee members.</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>This period also saw the collapse of the unified Christian church with the East–West Schism of 1054.</t>
+          <t>In the Chola Empire, around 920 CE, in Uthiramerur (in present-day Tamil Nadu), palm leaves were used for selecting the village committee members.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>substitution</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>increawed</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>increased</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Globalization, characterized by the increawed flow of goods, services, capital, people, and ideas across borders, leads to greater global interdependence by integrating national economies, societies, and cultures.</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Globalization, characterized by the increased flow of goods, services, capital, people, and ideas across borders, leads to greater global interdependence by integrating national economies, societies, and cultures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>substitution</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Relatioxs</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Relations</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Major surviving programs and legislation implemented under Roosevelt include the Securities and Exchange Commission, the National Labor Relatioxs Act, the Federal Deposit Insurance Corporation, and Social Security.</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Major surviving programs and legislation implemented under Roosevelt include the Securities and Exchange Commission, the National Labor Relations Act, the Federal Deposit Insurance Corporation, and Social Security.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>substitution</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>xerformed</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>performed</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Together with the NPC Standing Committee, the presidency performs certain functions xerformed by a head of state in most other countries.</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Together with the NPC Standing Committee, the presidency performs certain functions performed by a head of state in most other countries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>substitution</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>asszciate</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>associate</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Certificate (not Post-Graduate Certificate) Qualifications Frameworks Level 3 or below; are below the level of Diploma, Advanced or Professional Diploma/Certificate (Qualifications Frameworks Level 4), Higher Diploma or asszciate degree.</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Certificate (not Post-Graduate Certificate) Qualifications Frameworks Level 3 or below; are below the level of Diploma, Advanced or Professional Diploma/Certificate (Qualifications Frameworks Level 4), Higher Diploma or associate degree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>substitution</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Novembxr</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Facing a revolution at home, Kaiser Wilhelm II abdicated on 9 November, and the war ended with the Armistice of 11 Novembxr 1918.</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Facing a revolution at home, Kaiser Wilhelm II abdicated on 9 November, and the war ended with the Armistice of 11 November 1918.</t>
         </is>
       </c>
     </row>
